--- a/homework/Math454GradebookSp18.xlsx
+++ b/homework/Math454GradebookSp18.xlsx
@@ -16,15 +16,15 @@
     <sheet name="Checklist" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CORE">'GRADE BOOK'!$CH$19,'GRADE BOOK'!$CL$19,'GRADE BOOK'!$CN$19,'GRADE BOOK'!$CQ$19,'GRADE BOOK'!$CS$19,'GRADE BOOK'!$CV$19,'GRADE BOOK'!$CX$19,'GRADE BOOK'!$CY$19,'GRADE BOOK'!$DC$19,'GRADE BOOK'!$DE$19</definedName>
-    <definedName name="Getting_Started">'GRADE BOOK'!$DJ$19</definedName>
-    <definedName name="GP">'GRADE BOOK'!$K$19:$AI$95</definedName>
+    <definedName name="CORE">'GRADE BOOK'!$CF$19,'GRADE BOOK'!$CJ$19,'GRADE BOOK'!$CL$19,'GRADE BOOK'!$CO$19,'GRADE BOOK'!$CQ$19,'GRADE BOOK'!$CT$19,'GRADE BOOK'!$CV$19,'GRADE BOOK'!$CW$19,'GRADE BOOK'!$DA$19,'GRADE BOOK'!$DC$19</definedName>
+    <definedName name="Getting_Started">'GRADE BOOK'!$DH$19</definedName>
+    <definedName name="GP">'GRADE BOOK'!$K$19:$AH$95</definedName>
     <definedName name="GradeTable">'GRADE BOOK'!$H$4:$T$13</definedName>
-    <definedName name="Journal">'GRADE BOOK'!$BJ$19:$BN$19</definedName>
-    <definedName name="Problems">'GRADE BOOK'!$CF$19:$DE$19</definedName>
-    <definedName name="Quizzes">'GRADE BOOK'!$AJ$19:$BI$19</definedName>
+    <definedName name="Journal">'GRADE BOOK'!$BI$19:$BM$19</definedName>
+    <definedName name="Problems">'GRADE BOOK'!$CE$19:$DC$19</definedName>
+    <definedName name="Quizzes">'GRADE BOOK'!$AI$19:$BH$19</definedName>
     <definedName name="Specifications" comment="This contains the minimum requirement for each grade.">'GRADE BOOK'!$A$8:$F$16</definedName>
-    <definedName name="Teaching">'GRADE BOOK'!$DF$19:$DI$19</definedName>
+    <definedName name="Teaching">'GRADE BOOK'!$DD$19:$DG$19</definedName>
     <definedName name="TotalPoints">'GRADE BOOK'!#REF!</definedName>
     <definedName name="WeBWorKScore">'GRADE BOOK'!#REF!</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="144">
   <si>
     <t>F</t>
   </si>
@@ -158,9 +158,6 @@
     <t>(M-Homework)</t>
   </si>
   <si>
-    <t>Concept Check</t>
-  </si>
-  <si>
     <t>CORE-M Assesments</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>GP 24</t>
   </si>
   <si>
-    <t>GP 25</t>
-  </si>
-  <si>
     <t>CC 1</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
   </si>
   <si>
     <t>CORE 18</t>
-  </si>
-  <si>
-    <t>CORE 25</t>
   </si>
   <si>
     <t>CORE Grade</t>
@@ -919,6 +910,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,15 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1279,34 +1270,34 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EU61"/>
+  <dimension ref="A1:ES61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="DS19" sqref="DS19"/>
+      <selection pane="topRight" activeCell="BH21" sqref="BH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
     <col min="2" max="10" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="35" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="56" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="4.5703125" style="1" customWidth="1"/>
-    <col min="60" max="61" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="65" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="83" width="4.5703125" style="1" customWidth="1"/>
-    <col min="84" max="85" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="88" max="110" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="113" width="4.5703125" style="1" customWidth="1"/>
-    <col min="114" max="115" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="116" max="118" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="122" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="123" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="34" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="55" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="4.5703125" style="1" customWidth="1"/>
+    <col min="59" max="60" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="64" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="82" width="4.5703125" style="1" customWidth="1"/>
+    <col min="83" max="83" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="86" max="108" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="111" width="4.5703125" style="1" customWidth="1"/>
+    <col min="112" max="113" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="114" max="116" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="120" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="121" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1448,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -1526,7 +1517,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
@@ -1620,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1628,7 +1619,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:151" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:149" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>6</v>
       </c>
@@ -1645,356 +1636,352 @@
         <v>13</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="J18" s="34" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="M18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="N18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="O18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="P18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="Q18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="18" t="s">
+      <c r="R18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="18" t="s">
+      <c r="S18" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="T18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="T18" s="18" t="s">
+      <c r="U18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="U18" s="18" t="s">
+      <c r="V18" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="18" t="s">
+      <c r="W18" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="X18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="Y18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="18" t="s">
+      <c r="Z18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Z18" s="18" t="s">
+      <c r="AA18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AA18" s="18" t="s">
+      <c r="AB18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AB18" s="18" t="s">
+      <c r="AC18" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AC18" s="18" t="s">
+      <c r="AD18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AD18" s="18" t="s">
+      <c r="AE18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AE18" s="18" t="s">
+      <c r="AF18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AF18" s="18" t="s">
+      <c r="AG18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AG18" s="18" t="s">
+      <c r="AH18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AH18" s="18" t="s">
+      <c r="AI18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AI18" s="18" t="s">
+      <c r="AL18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AJ18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL18" s="20" t="s">
+      <c r="AM18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AM18" s="20" t="s">
+      <c r="AN18" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AN18" s="20" t="s">
+      <c r="AO18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AO18" s="20" t="s">
+      <c r="AP18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AP18" s="20" t="s">
+      <c r="AQ18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AQ18" s="20" t="s">
+      <c r="AR18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AR18" s="20" t="s">
+      <c r="AS18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AS18" s="20" t="s">
+      <c r="AT18" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AT18" s="20" t="s">
+      <c r="AU18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AU18" s="20" t="s">
+      <c r="AV18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AV18" s="20" t="s">
+      <c r="AW18" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AW18" s="20" t="s">
+      <c r="AX18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AX18" s="20" t="s">
+      <c r="AY18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AY18" s="20" t="s">
+      <c r="AZ18" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AZ18" s="20" t="s">
+      <c r="BA18" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="BA18" s="20" t="s">
+      <c r="BB18" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="BB18" s="60" t="s">
+      <c r="BC18" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="BC18" s="59" t="s">
+      <c r="BD18" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="BD18" s="59" t="s">
+      <c r="BE18" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="BE18" s="59" t="s">
+      <c r="BF18" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG18" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH18" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI18" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="BF18" s="59" t="s">
+      <c r="BJ18" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="BG18" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="BH18" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="BI18" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="BJ18" s="61" t="s">
+      <c r="BK18" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="BK18" s="21" t="s">
+      <c r="BL18" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="BL18" s="22" t="s">
+      <c r="BM18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="BM18" s="22" t="s">
+      <c r="BN18" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO18" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP18" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="BN18" s="20" t="s">
+      <c r="BR18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="BO18" s="20" t="s">
+      <c r="BS18" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="BP18" s="20" t="s">
+      <c r="BT18" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU18" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW18" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="BQ18" s="20" t="s">
+      <c r="BX18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ18" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="BR18" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="BS18" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT18" s="20" t="s">
+      <c r="CA18" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="CB18" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="BU18" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="BV18" s="20" t="s">
+      <c r="CC18" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD18" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="CE18" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="BW18" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="BX18" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="BY18" s="20" t="s">
+      <c r="CF18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="CG18" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="BZ18" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="CA18" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="CB18" s="20" t="s">
+      <c r="CH18" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="CC18" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="CD18" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="CE18" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="CF18" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="CG18" s="20" t="s">
+      <c r="CI18" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="CH18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="CI18" s="21" t="s">
+      <c r="CJ18" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="CJ18" s="18" t="s">
+      <c r="CK18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="CK18" s="18" t="s">
+      <c r="CL18" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="CL18" s="18" t="s">
+      <c r="CM18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="CM18" s="18" t="s">
+      <c r="CN18" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="CN18" s="18" t="s">
+      <c r="CO18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="CO18" s="18" t="s">
+      <c r="CP18" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="CP18" s="18" t="s">
+      <c r="CQ18" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="CQ18" s="18" t="s">
+      <c r="CR18" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="CR18" s="18" t="s">
+      <c r="CS18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="CS18" s="18" t="s">
+      <c r="CT18" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="CT18" s="18" t="s">
+      <c r="CU18" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="CU18" s="18" t="s">
+      <c r="CV18" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="CV18" s="18" t="s">
+      <c r="CW18" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="CW18" s="18" t="s">
+      <c r="CX18" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="CX18" s="18" t="s">
+      <c r="CY18" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="CY18" s="18" t="s">
+      <c r="CZ18" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="CZ18" s="18" t="s">
+      <c r="DA18" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="DA18" s="18" t="s">
+      <c r="DB18" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="DB18" s="18" t="s">
+      <c r="DC18" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="DC18" s="18" t="s">
+      <c r="DD18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="DD18" s="18" t="s">
+      <c r="DE18" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="DE18" s="18" t="s">
+      <c r="DF18" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="DF18" s="18" t="s">
+      <c r="DG18" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="DG18" s="18" t="s">
+      <c r="DH18" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="DH18" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="DI18" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="DJ18" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="DK18" s="24" t="s">
+      <c r="DI18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="DL18" s="25" t="s">
+      <c r="DJ18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="DM18" s="20" t="s">
+      <c r="DK18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="DN18" s="20" t="s">
+      <c r="DL18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="DO18" s="21" t="s">
+      <c r="DM18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="DP18" s="21" t="s">
+      <c r="DN18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="DQ18" s="22" t="s">
+      <c r="DO18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="DR18" s="22" t="s">
+      <c r="DP18" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="DQ18" s="13"/>
+      <c r="DR18" s="13"/>
       <c r="DS18" s="13"/>
       <c r="DT18" s="13"/>
       <c r="DU18" s="13"/>
@@ -2022,44 +2009,42 @@
       <c r="EQ18" s="13"/>
       <c r="ER18" s="13"/>
       <c r="ES18" s="13"/>
-      <c r="ET18" s="13"/>
-      <c r="EU18" s="13"/>
     </row>
-    <row r="19" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="33" t="str">
         <f>IF(COUNTIF(D19:J19,"F")&gt;1,"F",IF(COUNTIF(D19:J19,"F")=1,"D-",IF(COUNTIF(D19:J19,"D")&gt;2,"D",IF(COUNTIF(D19:J19,"D")=2,"D+",IF(COUNTIF(D19:J19,"D")=1,"C-",IF(COUNTIF(D19:J19,"C")&gt;2,"C",IF(COUNTIF(D19:J19,"C")=2,"C+",IF(COUNTIF(D19:J19,"C")=1,"B-",IF(COUNTIF(D19:J19,"B")&gt;2,"B",IF(COUNTIF(D19:J19,"B")=2,"B+",IF(COUNTIF(D19:J19,"B")=1,"A-","A")))))))))))</f>
-        <v>D-</v>
+        <v>C</v>
       </c>
       <c r="D19" s="27" t="str">
-        <f>DR19</f>
+        <f>DP19</f>
         <v>A</v>
       </c>
       <c r="E19" s="27" t="str">
-        <f t="shared" ref="E19:E58" si="0">AK19</f>
+        <f t="shared" ref="E19:E58" si="0">AJ19</f>
         <v>C</v>
       </c>
       <c r="F19" s="28" t="str">
-        <f>BK19</f>
+        <f t="shared" ref="F19:F58" si="1">BJ19</f>
         <v>B</v>
       </c>
       <c r="G19" s="28" t="str">
-        <f t="shared" ref="G19:G58" si="1">BM19</f>
-        <v>F</v>
+        <f t="shared" ref="G19:G58" si="2">BL19</f>
+        <v>A</v>
       </c>
       <c r="H19" s="28" t="str">
-        <f t="shared" ref="H19:H58" si="2">CI19</f>
+        <f t="shared" ref="H19:H58" si="3">CG19</f>
         <v>C</v>
       </c>
       <c r="I19" s="28" t="str">
-        <f t="shared" ref="I19:I58" si="3">DK19</f>
+        <f t="shared" ref="I19:I58" si="4">DI19</f>
         <v>C</v>
       </c>
       <c r="J19" s="28" t="str">
-        <f t="shared" ref="J19:J58" si="4">DP19</f>
+        <f t="shared" ref="J19:J58" si="5">DN19</f>
         <v>B</v>
       </c>
       <c r="K19" s="26">
@@ -2126,26 +2111,28 @@
         <v>1</v>
       </c>
       <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="29">
-        <f>SUM('GRADE BOOK'!$K19:$AI19)</f>
+      <c r="AI19" s="29">
+        <f>SUM('GRADE BOOK'!$K19:$AH19)</f>
         <v>20</v>
       </c>
-      <c r="AK19" s="29" t="str">
-        <f t="shared" ref="AK19:AK58" si="5">HLOOKUP(AJ19,A$9:F$15,7,TRUE)</f>
+      <c r="AJ19" s="29" t="str">
+        <f>HLOOKUP(AI19,A$9:F$15,7,TRUE)</f>
         <v>C</v>
       </c>
-      <c r="AL19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="30"/>
+      <c r="AK19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30">
+        <v>1</v>
+      </c>
       <c r="AN19" s="30">
         <v>1</v>
       </c>
-      <c r="AO19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="31">
+        <v>1</v>
+      </c>
       <c r="AQ19" s="31">
         <v>1</v>
       </c>
@@ -2185,37 +2172,37 @@
       <c r="BC19" s="31">
         <v>1</v>
       </c>
-      <c r="BD19" s="31">
-        <v>1</v>
-      </c>
+      <c r="BD19" s="31"/>
       <c r="BE19" s="31"/>
       <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
+      <c r="BG19" s="31">
+        <v>1</v>
+      </c>
       <c r="BH19" s="31">
         <v>1</v>
       </c>
-      <c r="BI19" s="31">
-        <v>1</v>
-      </c>
-      <c r="BJ19" s="29">
-        <f t="shared" ref="BJ19:BJ58" si="6">SUM(AL19:BI19)</f>
+      <c r="BI19" s="29">
+        <f t="shared" ref="BI19:BI58" si="6">SUM(AK19:BH19)</f>
         <v>19</v>
       </c>
-      <c r="BK19" s="29" t="str">
-        <f t="shared" ref="BK19:BK58" si="7">HLOOKUP(BJ19,A$10:F$15,6,TRUE)</f>
+      <c r="BJ19" s="29" t="str">
+        <f>HLOOKUP(BI19,A$10:F$15,6,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="BL19" s="29">
-        <v>1</v>
-      </c>
-      <c r="BM19" s="29" t="str">
-        <f t="shared" ref="BM19:BM58" si="8">HLOOKUP(BL19,B$11:F$15,5,TRUE)</f>
-        <v>F</v>
+      <c r="BK19" s="29">
+        <v>6</v>
+      </c>
+      <c r="BL19" s="29" t="str">
+        <f>HLOOKUP(BK19,B$11:F$15,5,TRUE)</f>
+        <v>A</v>
+      </c>
+      <c r="BM19" s="30">
+        <v>1</v>
       </c>
       <c r="BN19" s="30">
         <v>1</v>
       </c>
-      <c r="BO19" s="30">
+      <c r="BO19" s="31">
         <v>1</v>
       </c>
       <c r="BP19" s="31">
@@ -2236,62 +2223,62 @@
       <c r="BU19" s="31">
         <v>1</v>
       </c>
-      <c r="BV19" s="31">
-        <v>1</v>
-      </c>
-      <c r="BW19" s="30"/>
-      <c r="BX19" s="31">
-        <v>1</v>
-      </c>
-      <c r="BY19" s="30"/>
+      <c r="BV19" s="30"/>
+      <c r="BW19" s="31">
+        <v>1</v>
+      </c>
+      <c r="BX19" s="30"/>
+      <c r="BY19" s="31">
+        <v>1</v>
+      </c>
       <c r="BZ19" s="31">
         <v>1</v>
       </c>
-      <c r="CA19" s="31">
-        <v>1</v>
-      </c>
+      <c r="CA19" s="31"/>
       <c r="CB19" s="31"/>
-      <c r="CC19" s="31"/>
+      <c r="CC19" s="30"/>
       <c r="CD19" s="30"/>
       <c r="CE19" s="30"/>
-      <c r="CF19" s="30"/>
-      <c r="CG19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CH19" s="29">
-        <f>SUM(BN19:CG19)</f>
-        <v>13</v>
-      </c>
-      <c r="CI19" s="29" t="str">
-        <f t="shared" ref="CI19:CI58" si="9">HLOOKUP(CH19,A$12:F$15,4,TRUE)</f>
+      <c r="CF19" s="29">
+        <f>SUM(BM19:CE19)</f>
+        <v>12</v>
+      </c>
+      <c r="CG19" s="29" t="str">
+        <f>HLOOKUP(CF19,A$12:F$15,4,TRUE)</f>
         <v>C</v>
       </c>
+      <c r="CH19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CI19" s="31">
+        <v>1</v>
+      </c>
       <c r="CJ19" s="31">
         <v>1</v>
       </c>
-      <c r="CK19" s="31">
-        <v>1</v>
-      </c>
+      <c r="CK19" s="30"/>
       <c r="CL19" s="31">
         <v>1</v>
       </c>
-      <c r="CM19" s="30"/>
+      <c r="CM19" s="31">
+        <v>1</v>
+      </c>
       <c r="CN19" s="31">
         <v>1</v>
       </c>
-      <c r="CO19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CP19" s="31">
+      <c r="CO19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CP19" s="30">
         <v>1</v>
       </c>
       <c r="CQ19" s="30">
         <v>1</v>
       </c>
-      <c r="CR19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CS19" s="30">
+      <c r="CR19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CS19" s="31">
         <v>1</v>
       </c>
       <c r="CT19" s="31">
@@ -2303,73 +2290,67 @@
       <c r="CV19" s="31">
         <v>1</v>
       </c>
-      <c r="CW19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CX19" s="31">
-        <v>1</v>
-      </c>
+      <c r="CW19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CX19" s="30"/>
       <c r="CY19" s="30">
         <v>1</v>
       </c>
-      <c r="CZ19" s="30"/>
-      <c r="DA19" s="30">
-        <v>1</v>
-      </c>
-      <c r="DB19" s="30">
-        <v>1</v>
-      </c>
+      <c r="CZ19" s="30">
+        <v>1</v>
+      </c>
+      <c r="DA19" s="30"/>
+      <c r="DB19" s="31"/>
       <c r="DC19" s="30"/>
-      <c r="DD19" s="31"/>
+      <c r="DD19" s="30">
+        <v>1</v>
+      </c>
       <c r="DE19" s="30"/>
-      <c r="DF19" s="30">
-        <v>1</v>
-      </c>
+      <c r="DF19" s="30"/>
       <c r="DG19" s="30"/>
-      <c r="DH19" s="30"/>
-      <c r="DI19" s="30"/>
-      <c r="DJ19" s="29">
-        <f>SUM(CJ19:DI19)</f>
+      <c r="DH19" s="29">
+        <f t="shared" ref="DH19:DH58" si="7">SUM(CH19:DG19)</f>
         <v>18</v>
       </c>
-      <c r="DK19" s="29" t="str">
-        <f>HLOOKUP(DJ19,A$13:F$15,3,TRUE)</f>
+      <c r="DI19" s="29" t="str">
+        <f>HLOOKUP(DH19,A$13:F$15,3,TRUE)</f>
         <v>C</v>
       </c>
-      <c r="DL19" s="31">
-        <v>1</v>
-      </c>
-      <c r="DM19" s="31">
-        <v>1</v>
-      </c>
-      <c r="DN19" s="30"/>
-      <c r="DO19" s="29">
-        <f>SUM(DL19:DN19)</f>
+      <c r="DJ19" s="31">
+        <v>1</v>
+      </c>
+      <c r="DK19" s="31">
+        <v>1</v>
+      </c>
+      <c r="DL19" s="30"/>
+      <c r="DM19" s="29">
+        <f>SUM(DJ19:DL19)</f>
         <v>2</v>
       </c>
+      <c r="DN19" s="29" t="str">
+        <f>HLOOKUP(DM19,A$14:F$15,2,TRUE)</f>
+        <v>B</v>
+      </c>
+      <c r="DO19" s="31">
+        <v>1</v>
+      </c>
       <c r="DP19" s="29" t="str">
-        <f>HLOOKUP(DO19,A$14:F$15,2,TRUE)</f>
-        <v>B</v>
-      </c>
-      <c r="DQ19" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR19" s="29" t="str">
-        <f>HLOOKUP(DQ19,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO19,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="20" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="33" t="str">
-        <f t="shared" ref="C20:C58" si="10">IF(COUNTIF(D20:J20,"F")&gt;1,"F",IF(COUNTIF(D20:J20,"F")=1,"D-",IF(COUNTIF(D20:J20,"D")&gt;2,"D",IF(COUNTIF(D20:J20,"D")=2,"D+",IF(COUNTIF(D20:J20,"D")=1,"C-",IF(COUNTIF(D20:J20,"C")&gt;2,"C",IF(COUNTIF(D20:J20,"C")=2,"C+",IF(COUNTIF(D20:J20,"C")=1,"B-",IF(COUNTIF(D20:J20,"B")&gt;2,"B",IF(COUNTIF(D20:J20,"B")=2,"B+",IF(COUNTIF(D20:J20,"B")=1,"A-","A")))))))))))</f>
-        <v>D-</v>
+        <f t="shared" ref="C20:C58" si="8">IF(COUNTIF(D20:J20,"F")&gt;1,"F",IF(COUNTIF(D20:J20,"F")=1,"D-",IF(COUNTIF(D20:J20,"D")&gt;2,"D",IF(COUNTIF(D20:J20,"D")=2,"D+",IF(COUNTIF(D20:J20,"D")=1,"C-",IF(COUNTIF(D20:J20,"C")&gt;2,"C",IF(COUNTIF(D20:J20,"C")=2,"C+",IF(COUNTIF(D20:J20,"C")=1,"B-",IF(COUNTIF(D20:J20,"B")&gt;2,"B",IF(COUNTIF(D20:J20,"B")=2,"B+",IF(COUNTIF(D20:J20,"B")=1,"A-","A")))))))))))</f>
+        <v>C</v>
       </c>
       <c r="D20" s="27" t="str">
-        <f t="shared" ref="D20:D58" si="11">DR20</f>
+        <f t="shared" ref="D20:D58" si="9">DP20</f>
         <v>A</v>
       </c>
       <c r="E20" s="27" t="str">
@@ -2377,25 +2358,25 @@
         <v>A</v>
       </c>
       <c r="F20" s="28" t="str">
-        <f t="shared" ref="F20:F58" si="12">BK20</f>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
       <c r="G20" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="H20" s="28" t="str">
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
+      <c r="H20" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
       <c r="I20" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="J20" s="28" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
+      <c r="J20" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
       <c r="K20" s="26">
         <v>1</v>
       </c>
@@ -2466,15 +2447,17 @@
       <c r="AH20" s="26">
         <v>1</v>
       </c>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="29">
-        <f>SUM('GRADE BOOK'!$K20:$AI20)</f>
+      <c r="AI20" s="29">
+        <f>SUM('GRADE BOOK'!$K20:$AH20)</f>
         <v>23</v>
       </c>
-      <c r="AK20" s="29" t="str">
-        <f t="shared" si="5"/>
+      <c r="AJ20" s="29" t="str">
+        <f>HLOOKUP(AI20,A$9:F$15,7,TRUE)</f>
         <v>A</v>
       </c>
+      <c r="AK20" s="30">
+        <v>1</v>
+      </c>
       <c r="AL20" s="30">
         <v>1</v>
       </c>
@@ -2505,60 +2488,60 @@
       <c r="AU20" s="30">
         <v>1</v>
       </c>
-      <c r="AV20" s="30">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="30"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="30">
+        <v>1</v>
+      </c>
       <c r="AX20" s="30">
         <v>1</v>
       </c>
       <c r="AY20" s="30">
         <v>1</v>
       </c>
-      <c r="AZ20" s="30">
-        <v>1</v>
-      </c>
-      <c r="BA20" s="30"/>
-      <c r="BB20" s="30">
-        <v>1</v>
-      </c>
-      <c r="BC20" s="30"/>
-      <c r="BD20" s="30">
-        <v>1</v>
-      </c>
+      <c r="AZ20" s="30"/>
+      <c r="BA20" s="30">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="30"/>
+      <c r="BC20" s="30">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="30"/>
       <c r="BE20" s="30"/>
       <c r="BF20" s="30"/>
       <c r="BG20" s="30"/>
       <c r="BH20" s="30"/>
-      <c r="BI20" s="30"/>
-      <c r="BJ20" s="29">
+      <c r="BI20" s="29">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="BK20" s="29" t="str">
-        <f t="shared" si="7"/>
+      <c r="BJ20" s="29" t="str">
+        <f>HLOOKUP(BI20,A$10:F$15,6,TRUE)</f>
         <v>C</v>
       </c>
-      <c r="BL20" s="29">
-        <v>2</v>
-      </c>
-      <c r="BM20" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
+      <c r="BK20" s="29">
+        <v>4</v>
+      </c>
+      <c r="BL20" s="29" t="str">
+        <f>HLOOKUP(BK20,B$11:F$15,5,TRUE)</f>
+        <v>C</v>
+      </c>
+      <c r="BM20" s="30">
+        <v>1</v>
       </c>
       <c r="BN20" s="30">
         <v>1</v>
       </c>
-      <c r="BO20" s="30">
+      <c r="BO20" s="31">
         <v>1</v>
       </c>
       <c r="BP20" s="31">
         <v>1</v>
       </c>
-      <c r="BQ20" s="31">
-        <v>1</v>
-      </c>
-      <c r="BR20" s="30"/>
+      <c r="BQ20" s="30"/>
+      <c r="BR20" s="31">
+        <v>1</v>
+      </c>
       <c r="BS20" s="31">
         <v>1</v>
       </c>
@@ -2571,35 +2554,37 @@
       <c r="BV20" s="31">
         <v>1</v>
       </c>
-      <c r="BW20" s="31">
-        <v>1</v>
-      </c>
+      <c r="BW20" s="30"/>
       <c r="BX20" s="30"/>
-      <c r="BY20" s="30"/>
-      <c r="BZ20" s="31">
-        <v>1</v>
-      </c>
+      <c r="BY20" s="31">
+        <v>1</v>
+      </c>
+      <c r="BZ20" s="30"/>
       <c r="CA20" s="30"/>
-      <c r="CB20" s="30"/>
+      <c r="CB20" s="30">
+        <v>1</v>
+      </c>
       <c r="CC20" s="30">
         <v>1</v>
       </c>
-      <c r="CD20" s="30">
-        <v>1</v>
-      </c>
-      <c r="CE20" s="30"/>
-      <c r="CF20" s="30">
-        <v>1</v>
-      </c>
-      <c r="CG20" s="30"/>
-      <c r="CH20" s="29">
-        <f t="shared" ref="CH20:CH58" si="13">SUM(BN20:CG20)</f>
+      <c r="CD20" s="30"/>
+      <c r="CE20" s="30">
+        <v>1</v>
+      </c>
+      <c r="CF20" s="29">
+        <f>SUM(BM20:CE20)</f>
         <v>13</v>
       </c>
-      <c r="CI20" s="29" t="str">
-        <f t="shared" si="9"/>
+      <c r="CG20" s="29" t="str">
+        <f>HLOOKUP(CF20,A$12:F$15,4,TRUE)</f>
         <v>C</v>
       </c>
+      <c r="CH20">
+        <v>1</v>
+      </c>
+      <c r="CI20">
+        <v>1</v>
+      </c>
       <c r="CJ20">
         <v>1</v>
       </c>
@@ -2633,9 +2618,7 @@
       <c r="CT20">
         <v>1</v>
       </c>
-      <c r="CU20">
-        <v>1</v>
-      </c>
+      <c r="CU20"/>
       <c r="CV20">
         <v>1</v>
       </c>
@@ -2643,7 +2626,9 @@
       <c r="CX20">
         <v>1</v>
       </c>
-      <c r="CY20"/>
+      <c r="CY20">
+        <v>1</v>
+      </c>
       <c r="CZ20">
         <v>1</v>
       </c>
@@ -2668,54 +2653,48 @@
       <c r="DG20">
         <v>1</v>
       </c>
-      <c r="DH20">
-        <v>1</v>
-      </c>
-      <c r="DI20">
-        <v>1</v>
-      </c>
-      <c r="DJ20" s="29">
-        <f>SUM(CJ20:DI20)</f>
+      <c r="DH20" s="29">
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="DK20" s="29" t="str">
-        <f>HLOOKUP(DJ20,A$13:F$15,3,TRUE)</f>
+      <c r="DI20" s="29" t="str">
+        <f>HLOOKUP(DH20,A$13:F$15,3,TRUE)</f>
         <v>A</v>
       </c>
-      <c r="DL20" s="30">
-        <v>1</v>
-      </c>
-      <c r="DM20" s="30">
-        <v>1</v>
-      </c>
-      <c r="DN20" s="31">
-        <v>1</v>
-      </c>
-      <c r="DO20" s="29">
-        <f t="shared" ref="DO20:DO58" si="14">SUM(DL20:DN20)</f>
+      <c r="DJ20" s="30">
+        <v>1</v>
+      </c>
+      <c r="DK20" s="30">
+        <v>1</v>
+      </c>
+      <c r="DL20" s="31">
+        <v>1</v>
+      </c>
+      <c r="DM20" s="29">
+        <f t="shared" ref="DM20:DM58" si="10">SUM(DJ20:DL20)</f>
         <v>3</v>
       </c>
+      <c r="DN20" s="29" t="str">
+        <f>HLOOKUP(DM20,A$14:F$15,2,TRUE)</f>
+        <v>A</v>
+      </c>
+      <c r="DO20" s="31">
+        <v>1</v>
+      </c>
       <c r="DP20" s="29" t="str">
-        <f>HLOOKUP(DO20,A$14:F$15,2,TRUE)</f>
+        <f>HLOOKUP(DO20,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
-      <c r="DQ20" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR20" s="29" t="str">
-        <f>HLOOKUP(DQ20,A$8:F$15,8,TRUE)</f>
-        <v>A</v>
-      </c>
     </row>
-    <row r="21" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="26"/>
       <c r="C21" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D21" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="E21" s="27" t="str">
@@ -2723,23 +2702,23 @@
         <v>F</v>
       </c>
       <c r="F21" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G21" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H21" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I21" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J21" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K21"/>
@@ -2766,15 +2745,15 @@
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21" s="29">
-        <f>SUM('GRADE BOOK'!$K21:$AI21)</f>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI21" s="29">
+        <f>SUM('GRADE BOOK'!$K21:$AH21)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="29" t="str">
+        <f>HLOOKUP(AI21,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK21"/>
       <c r="AL21"/>
       <c r="AM21"/>
       <c r="AN21"/>
@@ -2798,22 +2777,22 @@
       <c r="BF21"/>
       <c r="BG21"/>
       <c r="BH21"/>
-      <c r="BI21"/>
-      <c r="BJ21" s="29">
+      <c r="BI21" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK21" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL21">
+      <c r="BJ21" s="29" t="str">
+        <f>HLOOKUP(BI21,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK21">
         <v>2</v>
       </c>
-      <c r="BM21" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BL21" s="29" t="str">
+        <f>HLOOKUP(BK21,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM21"/>
       <c r="BN21"/>
       <c r="BO21"/>
       <c r="BP21"/>
@@ -2832,16 +2811,16 @@
       <c r="CC21"/>
       <c r="CD21"/>
       <c r="CE21"/>
-      <c r="CF21"/>
-      <c r="CG21"/>
-      <c r="CH21" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI21" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF21" s="29">
+        <f>SUM(BM21:CE21)</f>
+        <v>0</v>
+      </c>
+      <c r="CG21" s="29" t="str">
+        <f>HLOOKUP(CF21,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH21"/>
+      <c r="CI21"/>
       <c r="CJ21"/>
       <c r="CK21"/>
       <c r="CL21"/>
@@ -2866,45 +2845,43 @@
       <c r="DE21"/>
       <c r="DF21"/>
       <c r="DG21"/>
-      <c r="DH21"/>
-      <c r="DI21"/>
-      <c r="DJ21" s="29">
-        <f>SUM(CJ21:DI21)</f>
-        <v>0</v>
-      </c>
-      <c r="DK21" s="29" t="str">
-        <f>HLOOKUP(DJ21,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH21" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI21" s="29" t="str">
+        <f>HLOOKUP(DH21,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ21"/>
+      <c r="DK21"/>
       <c r="DL21"/>
-      <c r="DM21"/>
-      <c r="DN21"/>
-      <c r="DO21" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="DM21" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN21" s="29" t="str">
+        <f>HLOOKUP(DM21,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO21" s="31">
+        <v>1</v>
       </c>
       <c r="DP21" s="29" t="str">
-        <f>HLOOKUP(DO21,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ21" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR21" s="29" t="str">
-        <f>HLOOKUP(DQ21,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO21,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
-      <c r="DS21" s="14"/>
+      <c r="DQ21" s="14"/>
     </row>
-    <row r="22" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" s="26"/>
       <c r="C22" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D22" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="E22" s="27" t="str">
@@ -2912,23 +2889,23 @@
         <v>F</v>
       </c>
       <c r="F22" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G22" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H22" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I22" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J22" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K22"/>
@@ -2955,15 +2932,15 @@
       <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
-      <c r="AI22"/>
-      <c r="AJ22" s="29">
-        <f>SUM('GRADE BOOK'!$K22:$AI22)</f>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI22" s="29">
+        <f>SUM('GRADE BOOK'!$K22:$AH22)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="29" t="str">
+        <f>HLOOKUP(AI22,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
       <c r="AN22"/>
@@ -2987,22 +2964,22 @@
       <c r="BF22"/>
       <c r="BG22"/>
       <c r="BH22"/>
-      <c r="BI22"/>
-      <c r="BJ22" s="29">
+      <c r="BI22" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK22" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL22">
+      <c r="BJ22" s="29" t="str">
+        <f>HLOOKUP(BI22,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK22">
         <v>2</v>
       </c>
-      <c r="BM22" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BL22" s="29" t="str">
+        <f>HLOOKUP(BK22,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM22"/>
       <c r="BN22"/>
       <c r="BO22"/>
       <c r="BP22"/>
@@ -3021,16 +2998,16 @@
       <c r="CC22"/>
       <c r="CD22"/>
       <c r="CE22"/>
-      <c r="CF22"/>
-      <c r="CG22"/>
-      <c r="CH22" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI22" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF22" s="29">
+        <f>SUM(BM22:CE22)</f>
+        <v>0</v>
+      </c>
+      <c r="CG22" s="29" t="str">
+        <f>HLOOKUP(CF22,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH22"/>
+      <c r="CI22"/>
       <c r="CJ22"/>
       <c r="CK22"/>
       <c r="CL22"/>
@@ -3055,44 +3032,42 @@
       <c r="DE22"/>
       <c r="DF22"/>
       <c r="DG22"/>
-      <c r="DH22"/>
-      <c r="DI22"/>
-      <c r="DJ22" s="29">
-        <f>SUM(CJ22:DI22)</f>
-        <v>0</v>
-      </c>
-      <c r="DK22" s="29" t="str">
-        <f>HLOOKUP(DJ22,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH22" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI22" s="29" t="str">
+        <f>HLOOKUP(DH22,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ22"/>
+      <c r="DK22"/>
       <c r="DL22"/>
-      <c r="DM22"/>
-      <c r="DN22"/>
-      <c r="DO22" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="DM22" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN22" s="29" t="str">
+        <f>HLOOKUP(DM22,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO22" s="31">
+        <v>1</v>
       </c>
       <c r="DP22" s="29" t="str">
-        <f>HLOOKUP(DO22,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ22" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR22" s="29" t="str">
-        <f>HLOOKUP(DQ22,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO22,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="23" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" s="26"/>
       <c r="C23" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D23" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="E23" s="27" t="str">
@@ -3100,23 +3075,23 @@
         <v>F</v>
       </c>
       <c r="F23" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G23" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H23" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I23" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J23" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K23"/>
@@ -3143,15 +3118,15 @@
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
-      <c r="AI23"/>
-      <c r="AJ23" s="29">
-        <f>SUM('GRADE BOOK'!$K23:$AI23)</f>
-        <v>0</v>
-      </c>
-      <c r="AK23" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI23" s="29">
+        <f>SUM('GRADE BOOK'!$K23:$AH23)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="29" t="str">
+        <f>HLOOKUP(AI23,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK23"/>
       <c r="AL23"/>
       <c r="AM23"/>
       <c r="AN23"/>
@@ -3175,22 +3150,22 @@
       <c r="BF23"/>
       <c r="BG23"/>
       <c r="BH23"/>
-      <c r="BI23"/>
-      <c r="BJ23" s="29">
+      <c r="BI23" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL23">
+      <c r="BJ23" s="29" t="str">
+        <f>HLOOKUP(BI23,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK23">
         <v>2</v>
       </c>
-      <c r="BM23" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BL23" s="29" t="str">
+        <f>HLOOKUP(BK23,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM23"/>
       <c r="BN23"/>
       <c r="BO23"/>
       <c r="BP23"/>
@@ -3209,16 +3184,16 @@
       <c r="CC23"/>
       <c r="CD23"/>
       <c r="CE23"/>
-      <c r="CF23"/>
-      <c r="CG23"/>
-      <c r="CH23" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI23" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF23" s="29">
+        <f>SUM(BM23:CE23)</f>
+        <v>0</v>
+      </c>
+      <c r="CG23" s="29" t="str">
+        <f>HLOOKUP(CF23,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH23"/>
+      <c r="CI23"/>
       <c r="CJ23"/>
       <c r="CK23"/>
       <c r="CL23"/>
@@ -3243,44 +3218,42 @@
       <c r="DE23"/>
       <c r="DF23"/>
       <c r="DG23"/>
-      <c r="DH23"/>
-      <c r="DI23"/>
-      <c r="DJ23" s="29">
-        <f>SUM(CJ23:DI23)</f>
-        <v>0</v>
-      </c>
-      <c r="DK23" s="29" t="str">
-        <f>HLOOKUP(DJ23,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH23" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI23" s="29" t="str">
+        <f>HLOOKUP(DH23,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ23"/>
+      <c r="DK23"/>
       <c r="DL23"/>
-      <c r="DM23"/>
-      <c r="DN23"/>
-      <c r="DO23" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="DM23" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN23" s="29" t="str">
+        <f>HLOOKUP(DM23,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO23" s="31">
+        <v>1</v>
       </c>
       <c r="DP23" s="29" t="str">
-        <f>HLOOKUP(DO23,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ23" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR23" s="29" t="str">
-        <f>HLOOKUP(DQ23,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO23,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="24" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="26"/>
       <c r="C24" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D24" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="E24" s="27" t="str">
@@ -3288,23 +3261,23 @@
         <v>F</v>
       </c>
       <c r="F24" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G24" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H24" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I24" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J24" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K24"/>
@@ -3331,15 +3304,15 @@
       <c r="AF24"/>
       <c r="AG24"/>
       <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24" s="29">
-        <f>SUM('GRADE BOOK'!$K24:$AI24)</f>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI24" s="29">
+        <f>SUM('GRADE BOOK'!$K24:$AH24)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="29" t="str">
+        <f>HLOOKUP(AI24,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK24"/>
       <c r="AL24"/>
       <c r="AM24"/>
       <c r="AN24"/>
@@ -3363,22 +3336,22 @@
       <c r="BF24"/>
       <c r="BG24"/>
       <c r="BH24"/>
-      <c r="BI24"/>
-      <c r="BJ24" s="29">
+      <c r="BI24" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK24" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL24">
+      <c r="BJ24" s="29" t="str">
+        <f>HLOOKUP(BI24,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK24">
         <v>2</v>
       </c>
-      <c r="BM24" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BL24" s="29" t="str">
+        <f>HLOOKUP(BK24,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM24"/>
       <c r="BN24"/>
       <c r="BO24"/>
       <c r="BP24"/>
@@ -3397,16 +3370,16 @@
       <c r="CC24"/>
       <c r="CD24"/>
       <c r="CE24"/>
-      <c r="CF24"/>
-      <c r="CG24"/>
-      <c r="CH24" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI24" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF24" s="29">
+        <f>SUM(BM24:CE24)</f>
+        <v>0</v>
+      </c>
+      <c r="CG24" s="29" t="str">
+        <f>HLOOKUP(CF24,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH24"/>
+      <c r="CI24"/>
       <c r="CJ24"/>
       <c r="CK24"/>
       <c r="CL24"/>
@@ -3431,44 +3404,42 @@
       <c r="DE24"/>
       <c r="DF24"/>
       <c r="DG24"/>
-      <c r="DH24"/>
-      <c r="DI24"/>
-      <c r="DJ24" s="29">
-        <f>SUM(CJ24:DI24)</f>
-        <v>0</v>
-      </c>
-      <c r="DK24" s="29" t="str">
-        <f>HLOOKUP(DJ24,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH24" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI24" s="29" t="str">
+        <f>HLOOKUP(DH24,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ24"/>
+      <c r="DK24"/>
       <c r="DL24"/>
-      <c r="DM24"/>
-      <c r="DN24"/>
-      <c r="DO24" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="DM24" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN24" s="29" t="str">
+        <f>HLOOKUP(DM24,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO24" s="31">
+        <v>1</v>
       </c>
       <c r="DP24" s="29" t="str">
-        <f>HLOOKUP(DO24,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ24" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR24" s="29" t="str">
-        <f>HLOOKUP(DQ24,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO24,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D25" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="E25" s="27" t="str">
@@ -3476,23 +3447,23 @@
         <v>F</v>
       </c>
       <c r="F25" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G25" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H25" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I25" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J25" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K25"/>
@@ -3519,15 +3490,15 @@
       <c r="AF25"/>
       <c r="AG25"/>
       <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25" s="29">
-        <f>SUM('GRADE BOOK'!$K25:$AI25)</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI25" s="29">
+        <f>SUM('GRADE BOOK'!$K25:$AH25)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="29" t="str">
+        <f>HLOOKUP(AI25,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK25"/>
       <c r="AL25"/>
       <c r="AM25"/>
       <c r="AN25"/>
@@ -3551,22 +3522,22 @@
       <c r="BF25"/>
       <c r="BG25"/>
       <c r="BH25"/>
-      <c r="BI25"/>
-      <c r="BJ25" s="29">
+      <c r="BI25" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK25" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL25">
-        <v>1</v>
-      </c>
-      <c r="BM25" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ25" s="29" t="str">
+        <f>HLOOKUP(BI25,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK25">
+        <v>1</v>
+      </c>
+      <c r="BL25" s="29" t="str">
+        <f>HLOOKUP(BK25,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM25"/>
       <c r="BN25"/>
       <c r="BO25"/>
       <c r="BP25"/>
@@ -3585,16 +3556,16 @@
       <c r="CC25"/>
       <c r="CD25"/>
       <c r="CE25"/>
-      <c r="CF25"/>
-      <c r="CG25"/>
-      <c r="CH25" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI25" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF25" s="29">
+        <f>SUM(BM25:CE25)</f>
+        <v>0</v>
+      </c>
+      <c r="CG25" s="29" t="str">
+        <f>HLOOKUP(CF25,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH25"/>
+      <c r="CI25"/>
       <c r="CJ25"/>
       <c r="CK25"/>
       <c r="CL25"/>
@@ -3619,44 +3590,42 @@
       <c r="DE25"/>
       <c r="DF25"/>
       <c r="DG25"/>
-      <c r="DH25"/>
-      <c r="DI25"/>
-      <c r="DJ25" s="29">
-        <f>SUM(CJ25:DI25)</f>
-        <v>0</v>
-      </c>
-      <c r="DK25" s="29" t="str">
-        <f>HLOOKUP(DJ25,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH25" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI25" s="29" t="str">
+        <f>HLOOKUP(DH25,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ25"/>
+      <c r="DK25"/>
       <c r="DL25"/>
-      <c r="DM25"/>
-      <c r="DN25"/>
-      <c r="DO25" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="DM25" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN25" s="29" t="str">
+        <f>HLOOKUP(DM25,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO25" s="31">
+        <v>1</v>
       </c>
       <c r="DP25" s="29" t="str">
-        <f>HLOOKUP(DO25,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ25" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR25" s="29" t="str">
-        <f>HLOOKUP(DQ25,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO25,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="26" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D26" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="E26" s="27" t="str">
@@ -3664,23 +3633,23 @@
         <v>F</v>
       </c>
       <c r="F26" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G26" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H26" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I26" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J26" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K26"/>
@@ -3707,15 +3676,15 @@
       <c r="AF26"/>
       <c r="AG26"/>
       <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26" s="29">
-        <f>SUM('GRADE BOOK'!$K26:$AI26)</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI26" s="29">
+        <f>SUM('GRADE BOOK'!$K26:$AH26)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="29" t="str">
+        <f>HLOOKUP(AI26,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK26"/>
       <c r="AL26"/>
       <c r="AM26"/>
       <c r="AN26"/>
@@ -3739,22 +3708,22 @@
       <c r="BF26"/>
       <c r="BG26"/>
       <c r="BH26"/>
-      <c r="BI26"/>
-      <c r="BJ26" s="29">
+      <c r="BI26" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK26" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL26">
+      <c r="BJ26" s="29" t="str">
+        <f>HLOOKUP(BI26,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK26">
         <v>2</v>
       </c>
-      <c r="BM26" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BL26" s="29" t="str">
+        <f>HLOOKUP(BK26,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM26"/>
       <c r="BN26"/>
       <c r="BO26"/>
       <c r="BP26"/>
@@ -3773,16 +3742,16 @@
       <c r="CC26"/>
       <c r="CD26"/>
       <c r="CE26"/>
-      <c r="CF26"/>
-      <c r="CG26"/>
-      <c r="CH26" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI26" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF26" s="29">
+        <f>SUM(BM26:CE26)</f>
+        <v>0</v>
+      </c>
+      <c r="CG26" s="29" t="str">
+        <f>HLOOKUP(CF26,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH26"/>
+      <c r="CI26"/>
       <c r="CJ26"/>
       <c r="CK26"/>
       <c r="CL26"/>
@@ -3807,44 +3776,42 @@
       <c r="DE26"/>
       <c r="DF26"/>
       <c r="DG26"/>
-      <c r="DH26"/>
-      <c r="DI26"/>
-      <c r="DJ26" s="29">
-        <f>SUM(CJ26:DI26)</f>
-        <v>0</v>
-      </c>
-      <c r="DK26" s="29" t="str">
-        <f>HLOOKUP(DJ26,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH26" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI26" s="29" t="str">
+        <f>HLOOKUP(DH26,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ26"/>
+      <c r="DK26"/>
       <c r="DL26"/>
-      <c r="DM26"/>
-      <c r="DN26"/>
-      <c r="DO26" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="DM26" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN26" s="29" t="str">
+        <f>HLOOKUP(DM26,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO26" s="31">
+        <v>1</v>
       </c>
       <c r="DP26" s="29" t="str">
-        <f>HLOOKUP(DO26,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ26" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR26" s="29" t="str">
-        <f>HLOOKUP(DQ26,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO26,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="27" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27" s="26"/>
       <c r="C27" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D27" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="E27" s="27" t="str">
@@ -3852,23 +3819,23 @@
         <v>F</v>
       </c>
       <c r="F27" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G27" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H27" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I27" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J27" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K27"/>
@@ -3895,15 +3862,15 @@
       <c r="AF27"/>
       <c r="AG27"/>
       <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27" s="29">
-        <f>SUM('GRADE BOOK'!$K27:$AI27)</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI27" s="29">
+        <f>SUM('GRADE BOOK'!$K27:$AH27)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="29" t="str">
+        <f>HLOOKUP(AI27,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK27"/>
       <c r="AL27"/>
       <c r="AM27"/>
       <c r="AN27"/>
@@ -3927,22 +3894,22 @@
       <c r="BF27"/>
       <c r="BG27"/>
       <c r="BH27"/>
-      <c r="BI27"/>
-      <c r="BJ27" s="29">
+      <c r="BI27" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK27" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL27">
+      <c r="BJ27" s="29" t="str">
+        <f>HLOOKUP(BI27,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK27">
         <v>2</v>
       </c>
-      <c r="BM27" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BL27" s="29" t="str">
+        <f>HLOOKUP(BK27,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM27"/>
       <c r="BN27"/>
       <c r="BO27"/>
       <c r="BP27"/>
@@ -3961,16 +3928,16 @@
       <c r="CC27"/>
       <c r="CD27"/>
       <c r="CE27"/>
-      <c r="CF27"/>
-      <c r="CG27"/>
-      <c r="CH27" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI27" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF27" s="29">
+        <f>SUM(BM27:CE27)</f>
+        <v>0</v>
+      </c>
+      <c r="CG27" s="29" t="str">
+        <f>HLOOKUP(CF27,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH27"/>
+      <c r="CI27"/>
       <c r="CJ27"/>
       <c r="CK27"/>
       <c r="CL27"/>
@@ -3995,44 +3962,42 @@
       <c r="DE27"/>
       <c r="DF27"/>
       <c r="DG27"/>
-      <c r="DH27"/>
-      <c r="DI27"/>
-      <c r="DJ27" s="29">
-        <f>SUM(CJ27:DI27)</f>
-        <v>0</v>
-      </c>
-      <c r="DK27" s="29" t="str">
-        <f>HLOOKUP(DJ27,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH27" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI27" s="29" t="str">
+        <f>HLOOKUP(DH27,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ27"/>
+      <c r="DK27"/>
       <c r="DL27"/>
-      <c r="DM27"/>
-      <c r="DN27"/>
-      <c r="DO27" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="DM27" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN27" s="29" t="str">
+        <f>HLOOKUP(DM27,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO27" s="31">
+        <v>1</v>
       </c>
       <c r="DP27" s="29" t="str">
-        <f>HLOOKUP(DO27,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ27" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR27" s="29" t="str">
-        <f>HLOOKUP(DQ27,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO27,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="28" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28" s="26"/>
       <c r="C28" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D28" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="E28" s="27" t="str">
@@ -4040,23 +4005,23 @@
         <v>F</v>
       </c>
       <c r="F28" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G28" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H28" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I28" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J28" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K28"/>
@@ -4083,15 +4048,15 @@
       <c r="AF28"/>
       <c r="AG28"/>
       <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28" s="29">
-        <f>SUM('GRADE BOOK'!$K28:$AI28)</f>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI28" s="29">
+        <f>SUM('GRADE BOOK'!$K28:$AH28)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="29" t="str">
+        <f>HLOOKUP(AI28,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK28"/>
       <c r="AL28"/>
       <c r="AM28"/>
       <c r="AN28"/>
@@ -4115,22 +4080,22 @@
       <c r="BF28"/>
       <c r="BG28"/>
       <c r="BH28"/>
-      <c r="BI28"/>
-      <c r="BJ28" s="29">
+      <c r="BI28" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK28" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL28">
+      <c r="BJ28" s="29" t="str">
+        <f>HLOOKUP(BI28,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK28">
         <v>2</v>
       </c>
-      <c r="BM28" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BL28" s="29" t="str">
+        <f>HLOOKUP(BK28,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM28"/>
       <c r="BN28"/>
       <c r="BO28"/>
       <c r="BP28"/>
@@ -4149,16 +4114,16 @@
       <c r="CC28"/>
       <c r="CD28"/>
       <c r="CE28"/>
-      <c r="CF28"/>
-      <c r="CG28"/>
-      <c r="CH28" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI28" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF28" s="29">
+        <f>SUM(BM28:CE28)</f>
+        <v>0</v>
+      </c>
+      <c r="CG28" s="29" t="str">
+        <f>HLOOKUP(CF28,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH28"/>
+      <c r="CI28"/>
       <c r="CJ28"/>
       <c r="CK28"/>
       <c r="CL28"/>
@@ -4183,44 +4148,42 @@
       <c r="DE28"/>
       <c r="DF28"/>
       <c r="DG28"/>
-      <c r="DH28"/>
-      <c r="DI28"/>
-      <c r="DJ28" s="29">
-        <f>SUM(CJ28:DI28)</f>
-        <v>0</v>
-      </c>
-      <c r="DK28" s="29" t="str">
-        <f>HLOOKUP(DJ28,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH28" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI28" s="29" t="str">
+        <f>HLOOKUP(DH28,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ28"/>
+      <c r="DK28"/>
       <c r="DL28"/>
-      <c r="DM28"/>
-      <c r="DN28"/>
-      <c r="DO28" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="DM28" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN28" s="29" t="str">
+        <f>HLOOKUP(DM28,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO28" s="31">
+        <v>1</v>
       </c>
       <c r="DP28" s="29" t="str">
-        <f>HLOOKUP(DO28,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ28" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR28" s="29" t="str">
-        <f>HLOOKUP(DQ28,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO28,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="29" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="26"/>
       <c r="C29" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D29" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="E29" s="27" t="str">
@@ -4228,23 +4191,23 @@
         <v>F</v>
       </c>
       <c r="F29" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G29" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H29" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I29" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J29" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K29"/>
@@ -4271,15 +4234,15 @@
       <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29" s="29">
-        <f>SUM('GRADE BOOK'!$K29:$AI29)</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI29" s="29">
+        <f>SUM('GRADE BOOK'!$K29:$AH29)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="29" t="str">
+        <f>HLOOKUP(AI29,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK29"/>
       <c r="AL29"/>
       <c r="AM29"/>
       <c r="AN29"/>
@@ -4303,22 +4266,22 @@
       <c r="BF29"/>
       <c r="BG29"/>
       <c r="BH29"/>
-      <c r="BI29"/>
-      <c r="BJ29" s="29">
+      <c r="BI29" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK29" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL29">
+      <c r="BJ29" s="29" t="str">
+        <f>HLOOKUP(BI29,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK29">
         <v>2</v>
       </c>
-      <c r="BM29" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BL29" s="29" t="str">
+        <f>HLOOKUP(BK29,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM29"/>
       <c r="BN29"/>
       <c r="BO29"/>
       <c r="BP29"/>
@@ -4337,16 +4300,16 @@
       <c r="CC29"/>
       <c r="CD29"/>
       <c r="CE29"/>
-      <c r="CF29"/>
-      <c r="CG29"/>
-      <c r="CH29" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI29" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF29" s="29">
+        <f>SUM(BM29:CE29)</f>
+        <v>0</v>
+      </c>
+      <c r="CG29" s="29" t="str">
+        <f>HLOOKUP(CF29,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH29"/>
+      <c r="CI29"/>
       <c r="CJ29"/>
       <c r="CK29"/>
       <c r="CL29"/>
@@ -4371,44 +4334,42 @@
       <c r="DE29"/>
       <c r="DF29"/>
       <c r="DG29"/>
-      <c r="DH29"/>
-      <c r="DI29"/>
-      <c r="DJ29" s="29">
-        <f>SUM(CJ29:DI29)</f>
-        <v>0</v>
-      </c>
-      <c r="DK29" s="29" t="str">
-        <f>HLOOKUP(DJ29,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH29" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI29" s="29" t="str">
+        <f>HLOOKUP(DH29,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ29"/>
+      <c r="DK29"/>
       <c r="DL29"/>
-      <c r="DM29"/>
-      <c r="DN29"/>
-      <c r="DO29" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="DM29" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN29" s="29" t="str">
+        <f>HLOOKUP(DM29,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO29" s="31">
+        <v>1</v>
       </c>
       <c r="DP29" s="29" t="str">
-        <f>HLOOKUP(DO29,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ29" s="31">
-        <v>1</v>
-      </c>
-      <c r="DR29" s="29" t="str">
-        <f>HLOOKUP(DQ29,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO29,A$8:F$15,8,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="30" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D30" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E30" s="27" t="str">
@@ -4416,23 +4377,23 @@
         <v>F</v>
       </c>
       <c r="F30" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G30" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H30" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I30" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J30" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K30" s="26"/>
@@ -4459,15 +4420,15 @@
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
       <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="29">
-        <f>SUM('GRADE BOOK'!$K30:$AI30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI30" s="29">
+        <f>SUM('GRADE BOOK'!$K30:$AH30)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="29" t="str">
+        <f>HLOOKUP(AI30,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK30" s="30"/>
       <c r="AL30" s="30"/>
       <c r="AM30" s="30"/>
       <c r="AN30" s="30"/>
@@ -4491,22 +4452,22 @@
       <c r="BF30" s="30"/>
       <c r="BG30" s="30"/>
       <c r="BH30" s="30"/>
-      <c r="BI30" s="30"/>
-      <c r="BJ30" s="29">
+      <c r="BI30" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK30" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL30" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM30" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ30" s="29" t="str">
+        <f>HLOOKUP(BI30,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK30" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="29" t="str">
+        <f>HLOOKUP(BK30,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM30" s="30"/>
       <c r="BN30" s="30"/>
       <c r="BO30" s="30"/>
       <c r="BP30" s="30"/>
@@ -4525,16 +4486,16 @@
       <c r="CC30" s="30"/>
       <c r="CD30" s="30"/>
       <c r="CE30" s="30"/>
-      <c r="CF30" s="30"/>
-      <c r="CG30" s="30"/>
-      <c r="CH30" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI30" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF30" s="29">
+        <f>SUM(BM30:CE30)</f>
+        <v>0</v>
+      </c>
+      <c r="CG30" s="29" t="str">
+        <f>HLOOKUP(CF30,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH30" s="30"/>
+      <c r="CI30" s="30"/>
       <c r="CJ30" s="30"/>
       <c r="CK30" s="30"/>
       <c r="CL30" s="30"/>
@@ -4559,44 +4520,42 @@
       <c r="DE30" s="30"/>
       <c r="DF30" s="30"/>
       <c r="DG30" s="30"/>
-      <c r="DH30" s="30"/>
-      <c r="DI30" s="30"/>
-      <c r="DJ30" s="29">
-        <f>SUM(CJ30:DI30)</f>
-        <v>0</v>
-      </c>
-      <c r="DK30" s="29" t="str">
-        <f>HLOOKUP(DJ30,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH30" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI30" s="29" t="str">
+        <f>HLOOKUP(DH30,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ30" s="30"/>
+      <c r="DK30" s="30"/>
       <c r="DL30" s="30"/>
-      <c r="DM30" s="30"/>
-      <c r="DN30" s="30"/>
-      <c r="DO30" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM30" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN30" s="29" t="str">
+        <f>HLOOKUP(DM30,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO30" s="31">
         <v>0</v>
       </c>
       <c r="DP30" s="29" t="str">
-        <f>HLOOKUP(DO30,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ30" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR30" s="29" t="str">
-        <f>HLOOKUP(DQ30,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO30,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="31" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D31" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E31" s="27" t="str">
@@ -4604,23 +4563,23 @@
         <v>F</v>
       </c>
       <c r="F31" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G31" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H31" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I31" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J31" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K31" s="26"/>
@@ -4647,15 +4606,15 @@
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
       <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="29">
-        <f>SUM('GRADE BOOK'!$K31:$AI31)</f>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI31" s="29">
+        <f>SUM('GRADE BOOK'!$K31:$AH31)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="29" t="str">
+        <f>HLOOKUP(AI31,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK31" s="30"/>
       <c r="AL31" s="30"/>
       <c r="AM31" s="30"/>
       <c r="AN31" s="30"/>
@@ -4679,22 +4638,22 @@
       <c r="BF31" s="30"/>
       <c r="BG31" s="30"/>
       <c r="BH31" s="30"/>
-      <c r="BI31" s="30"/>
-      <c r="BJ31" s="29">
+      <c r="BI31" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL31" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM31" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ31" s="29" t="str">
+        <f>HLOOKUP(BI31,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK31" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="29" t="str">
+        <f>HLOOKUP(BK31,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM31" s="30"/>
       <c r="BN31" s="30"/>
       <c r="BO31" s="30"/>
       <c r="BP31" s="30"/>
@@ -4713,16 +4672,16 @@
       <c r="CC31" s="30"/>
       <c r="CD31" s="30"/>
       <c r="CE31" s="30"/>
-      <c r="CF31" s="30"/>
-      <c r="CG31" s="30"/>
-      <c r="CH31" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI31" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF31" s="29">
+        <f>SUM(BM31:CE31)</f>
+        <v>0</v>
+      </c>
+      <c r="CG31" s="29" t="str">
+        <f>HLOOKUP(CF31,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH31" s="30"/>
+      <c r="CI31" s="30"/>
       <c r="CJ31" s="30"/>
       <c r="CK31" s="30"/>
       <c r="CL31" s="30"/>
@@ -4747,44 +4706,42 @@
       <c r="DE31" s="30"/>
       <c r="DF31" s="30"/>
       <c r="DG31" s="30"/>
-      <c r="DH31" s="30"/>
-      <c r="DI31" s="30"/>
-      <c r="DJ31" s="29">
-        <f>SUM(CJ31:DI31)</f>
-        <v>0</v>
-      </c>
-      <c r="DK31" s="29" t="str">
-        <f>HLOOKUP(DJ31,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH31" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI31" s="29" t="str">
+        <f>HLOOKUP(DH31,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ31" s="30"/>
+      <c r="DK31" s="30"/>
       <c r="DL31" s="30"/>
-      <c r="DM31" s="30"/>
-      <c r="DN31" s="30"/>
-      <c r="DO31" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM31" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN31" s="29" t="str">
+        <f>HLOOKUP(DM31,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO31" s="31">
         <v>0</v>
       </c>
       <c r="DP31" s="29" t="str">
-        <f>HLOOKUP(DO31,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ31" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR31" s="29" t="str">
-        <f>HLOOKUP(DQ31,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO31,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="32" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D32" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E32" s="27" t="str">
@@ -4792,23 +4749,23 @@
         <v>F</v>
       </c>
       <c r="F32" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G32" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H32" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I32" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J32" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K32" s="26"/>
@@ -4835,15 +4792,15 @@
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
       <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="29">
-        <f>SUM('GRADE BOOK'!$K32:$AI32)</f>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI32" s="29">
+        <f>SUM('GRADE BOOK'!$K32:$AH32)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="29" t="str">
+        <f>HLOOKUP(AI32,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK32" s="30"/>
       <c r="AL32" s="30"/>
       <c r="AM32" s="30"/>
       <c r="AN32" s="30"/>
@@ -4867,22 +4824,22 @@
       <c r="BF32" s="30"/>
       <c r="BG32" s="30"/>
       <c r="BH32" s="30"/>
-      <c r="BI32" s="30"/>
-      <c r="BJ32" s="29">
+      <c r="BI32" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK32" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL32" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM32" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ32" s="29" t="str">
+        <f>HLOOKUP(BI32,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK32" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL32" s="29" t="str">
+        <f>HLOOKUP(BK32,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM32" s="30"/>
       <c r="BN32" s="30"/>
       <c r="BO32" s="30"/>
       <c r="BP32" s="30"/>
@@ -4901,16 +4858,16 @@
       <c r="CC32" s="30"/>
       <c r="CD32" s="30"/>
       <c r="CE32" s="30"/>
-      <c r="CF32" s="30"/>
-      <c r="CG32" s="30"/>
-      <c r="CH32" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI32" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF32" s="29">
+        <f>SUM(BM32:CE32)</f>
+        <v>0</v>
+      </c>
+      <c r="CG32" s="29" t="str">
+        <f>HLOOKUP(CF32,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH32" s="30"/>
+      <c r="CI32" s="30"/>
       <c r="CJ32" s="30"/>
       <c r="CK32" s="30"/>
       <c r="CL32" s="30"/>
@@ -4935,44 +4892,42 @@
       <c r="DE32" s="30"/>
       <c r="DF32" s="30"/>
       <c r="DG32" s="30"/>
-      <c r="DH32" s="30"/>
-      <c r="DI32" s="30"/>
-      <c r="DJ32" s="29">
-        <f>SUM(CJ32:DI32)</f>
-        <v>0</v>
-      </c>
-      <c r="DK32" s="29" t="str">
-        <f>HLOOKUP(DJ32,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH32" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI32" s="29" t="str">
+        <f>HLOOKUP(DH32,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ32" s="30"/>
+      <c r="DK32" s="30"/>
       <c r="DL32" s="30"/>
-      <c r="DM32" s="30"/>
-      <c r="DN32" s="30"/>
-      <c r="DO32" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM32" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN32" s="29" t="str">
+        <f>HLOOKUP(DM32,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO32" s="31">
         <v>0</v>
       </c>
       <c r="DP32" s="29" t="str">
-        <f>HLOOKUP(DO32,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ32" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR32" s="29" t="str">
-        <f>HLOOKUP(DQ32,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO32,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D33" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E33" s="27" t="str">
@@ -4980,23 +4935,23 @@
         <v>F</v>
       </c>
       <c r="F33" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G33" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H33" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I33" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J33" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K33" s="26"/>
@@ -5023,15 +4978,15 @@
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
       <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="29">
-        <f>SUM('GRADE BOOK'!$K33:$AI33)</f>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI33" s="29">
+        <f>SUM('GRADE BOOK'!$K33:$AH33)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="29" t="str">
+        <f>HLOOKUP(AI33,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK33" s="30"/>
       <c r="AL33" s="30"/>
       <c r="AM33" s="30"/>
       <c r="AN33" s="30"/>
@@ -5055,22 +5010,22 @@
       <c r="BF33" s="30"/>
       <c r="BG33" s="30"/>
       <c r="BH33" s="30"/>
-      <c r="BI33" s="30"/>
-      <c r="BJ33" s="29">
+      <c r="BI33" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK33" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL33" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM33" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ33" s="29" t="str">
+        <f>HLOOKUP(BI33,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK33" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="29" t="str">
+        <f>HLOOKUP(BK33,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM33" s="30"/>
       <c r="BN33" s="30"/>
       <c r="BO33" s="30"/>
       <c r="BP33" s="30"/>
@@ -5089,16 +5044,16 @@
       <c r="CC33" s="30"/>
       <c r="CD33" s="30"/>
       <c r="CE33" s="30"/>
-      <c r="CF33" s="30"/>
-      <c r="CG33" s="30"/>
-      <c r="CH33" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI33" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF33" s="29">
+        <f>SUM(BM33:CE33)</f>
+        <v>0</v>
+      </c>
+      <c r="CG33" s="29" t="str">
+        <f>HLOOKUP(CF33,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH33" s="30"/>
+      <c r="CI33" s="30"/>
       <c r="CJ33" s="30"/>
       <c r="CK33" s="30"/>
       <c r="CL33" s="30"/>
@@ -5123,44 +5078,42 @@
       <c r="DE33" s="30"/>
       <c r="DF33" s="30"/>
       <c r="DG33" s="30"/>
-      <c r="DH33" s="30"/>
-      <c r="DI33" s="30"/>
-      <c r="DJ33" s="29">
-        <f>SUM(CJ33:DI33)</f>
-        <v>0</v>
-      </c>
-      <c r="DK33" s="29" t="str">
-        <f>HLOOKUP(DJ33,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH33" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI33" s="29" t="str">
+        <f>HLOOKUP(DH33,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ33" s="30"/>
+      <c r="DK33" s="30"/>
       <c r="DL33" s="30"/>
-      <c r="DM33" s="30"/>
-      <c r="DN33" s="30"/>
-      <c r="DO33" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM33" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN33" s="29" t="str">
+        <f>HLOOKUP(DM33,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO33" s="31">
         <v>0</v>
       </c>
       <c r="DP33" s="29" t="str">
-        <f>HLOOKUP(DO33,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR33" s="29" t="str">
-        <f>HLOOKUP(DQ33,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO33,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="34" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D34" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E34" s="27" t="str">
@@ -5168,23 +5121,23 @@
         <v>F</v>
       </c>
       <c r="F34" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H34" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I34" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J34" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K34" s="26"/>
@@ -5211,15 +5164,15 @@
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
       <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="29">
-        <f>SUM('GRADE BOOK'!$K34:$AI34)</f>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI34" s="29">
+        <f>SUM('GRADE BOOK'!$K34:$AH34)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="29" t="str">
+        <f>HLOOKUP(AI34,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK34" s="30"/>
       <c r="AL34" s="30"/>
       <c r="AM34" s="30"/>
       <c r="AN34" s="30"/>
@@ -5243,22 +5196,22 @@
       <c r="BF34" s="30"/>
       <c r="BG34" s="30"/>
       <c r="BH34" s="30"/>
-      <c r="BI34" s="30"/>
-      <c r="BJ34" s="29">
+      <c r="BI34" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK34" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL34" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM34" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ34" s="29" t="str">
+        <f>HLOOKUP(BI34,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK34" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="29" t="str">
+        <f>HLOOKUP(BK34,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM34" s="30"/>
       <c r="BN34" s="30"/>
       <c r="BO34" s="30"/>
       <c r="BP34" s="30"/>
@@ -5277,16 +5230,16 @@
       <c r="CC34" s="30"/>
       <c r="CD34" s="30"/>
       <c r="CE34" s="30"/>
-      <c r="CF34" s="30"/>
-      <c r="CG34" s="30"/>
-      <c r="CH34" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI34" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF34" s="29">
+        <f>SUM(BM34:CE34)</f>
+        <v>0</v>
+      </c>
+      <c r="CG34" s="29" t="str">
+        <f>HLOOKUP(CF34,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH34" s="30"/>
+      <c r="CI34" s="30"/>
       <c r="CJ34" s="30"/>
       <c r="CK34" s="30"/>
       <c r="CL34" s="30"/>
@@ -5311,44 +5264,42 @@
       <c r="DE34" s="30"/>
       <c r="DF34" s="30"/>
       <c r="DG34" s="30"/>
-      <c r="DH34" s="30"/>
-      <c r="DI34" s="30"/>
-      <c r="DJ34" s="29">
-        <f>SUM(CJ34:DI34)</f>
-        <v>0</v>
-      </c>
-      <c r="DK34" s="29" t="str">
-        <f>HLOOKUP(DJ34,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH34" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI34" s="29" t="str">
+        <f>HLOOKUP(DH34,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ34" s="30"/>
+      <c r="DK34" s="30"/>
       <c r="DL34" s="30"/>
-      <c r="DM34" s="30"/>
-      <c r="DN34" s="30"/>
-      <c r="DO34" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM34" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN34" s="29" t="str">
+        <f>HLOOKUP(DM34,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO34" s="31">
         <v>0</v>
       </c>
       <c r="DP34" s="29" t="str">
-        <f>HLOOKUP(DO34,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ34" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR34" s="29" t="str">
-        <f>HLOOKUP(DQ34,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO34,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="35" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D35" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E35" s="27" t="str">
@@ -5356,23 +5307,23 @@
         <v>F</v>
       </c>
       <c r="F35" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G35" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H35" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I35" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J35" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K35" s="26"/>
@@ -5399,15 +5350,15 @@
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
       <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="29">
-        <f>SUM('GRADE BOOK'!$K35:$AI35)</f>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI35" s="29">
+        <f>SUM('GRADE BOOK'!$K35:$AH35)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="29" t="str">
+        <f>HLOOKUP(AI35,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK35" s="30"/>
       <c r="AL35" s="30"/>
       <c r="AM35" s="30"/>
       <c r="AN35" s="30"/>
@@ -5431,22 +5382,22 @@
       <c r="BF35" s="30"/>
       <c r="BG35" s="30"/>
       <c r="BH35" s="30"/>
-      <c r="BI35" s="30"/>
-      <c r="BJ35" s="29">
+      <c r="BI35" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK35" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL35" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM35" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ35" s="29" t="str">
+        <f>HLOOKUP(BI35,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK35" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL35" s="29" t="str">
+        <f>HLOOKUP(BK35,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM35" s="30"/>
       <c r="BN35" s="30"/>
       <c r="BO35" s="30"/>
       <c r="BP35" s="30"/>
@@ -5465,16 +5416,16 @@
       <c r="CC35" s="30"/>
       <c r="CD35" s="30"/>
       <c r="CE35" s="30"/>
-      <c r="CF35" s="30"/>
-      <c r="CG35" s="30"/>
-      <c r="CH35" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI35" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF35" s="29">
+        <f>SUM(BM35:CE35)</f>
+        <v>0</v>
+      </c>
+      <c r="CG35" s="29" t="str">
+        <f>HLOOKUP(CF35,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH35" s="30"/>
+      <c r="CI35" s="30"/>
       <c r="CJ35" s="30"/>
       <c r="CK35" s="30"/>
       <c r="CL35" s="30"/>
@@ -5499,44 +5450,42 @@
       <c r="DE35" s="30"/>
       <c r="DF35" s="30"/>
       <c r="DG35" s="30"/>
-      <c r="DH35" s="30"/>
-      <c r="DI35" s="30"/>
-      <c r="DJ35" s="29">
-        <f>SUM(CJ35:DI35)</f>
-        <v>0</v>
-      </c>
-      <c r="DK35" s="29" t="str">
-        <f>HLOOKUP(DJ35,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH35" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI35" s="29" t="str">
+        <f>HLOOKUP(DH35,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ35" s="30"/>
+      <c r="DK35" s="30"/>
       <c r="DL35" s="30"/>
-      <c r="DM35" s="30"/>
-      <c r="DN35" s="30"/>
-      <c r="DO35" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM35" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN35" s="29" t="str">
+        <f>HLOOKUP(DM35,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO35" s="31">
         <v>0</v>
       </c>
       <c r="DP35" s="29" t="str">
-        <f>HLOOKUP(DO35,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ35" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR35" s="29" t="str">
-        <f>HLOOKUP(DQ35,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO35,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="36" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D36" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E36" s="27" t="str">
@@ -5544,23 +5493,23 @@
         <v>F</v>
       </c>
       <c r="F36" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G36" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H36" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I36" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J36" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K36" s="26"/>
@@ -5587,15 +5536,15 @@
       <c r="AF36" s="26"/>
       <c r="AG36" s="26"/>
       <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="29">
-        <f>SUM('GRADE BOOK'!$K36:$AI36)</f>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI36" s="29">
+        <f>SUM('GRADE BOOK'!$K36:$AH36)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="29" t="str">
+        <f>HLOOKUP(AI36,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK36" s="30"/>
       <c r="AL36" s="30"/>
       <c r="AM36" s="30"/>
       <c r="AN36" s="30"/>
@@ -5619,22 +5568,22 @@
       <c r="BF36" s="30"/>
       <c r="BG36" s="30"/>
       <c r="BH36" s="30"/>
-      <c r="BI36" s="30"/>
-      <c r="BJ36" s="29">
+      <c r="BI36" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK36" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL36" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM36" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ36" s="29" t="str">
+        <f>HLOOKUP(BI36,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK36" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="29" t="str">
+        <f>HLOOKUP(BK36,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM36" s="30"/>
       <c r="BN36" s="30"/>
       <c r="BO36" s="30"/>
       <c r="BP36" s="30"/>
@@ -5653,16 +5602,16 @@
       <c r="CC36" s="30"/>
       <c r="CD36" s="30"/>
       <c r="CE36" s="30"/>
-      <c r="CF36" s="30"/>
-      <c r="CG36" s="30"/>
-      <c r="CH36" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI36" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF36" s="29">
+        <f>SUM(BM36:CE36)</f>
+        <v>0</v>
+      </c>
+      <c r="CG36" s="29" t="str">
+        <f>HLOOKUP(CF36,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH36" s="30"/>
+      <c r="CI36" s="30"/>
       <c r="CJ36" s="30"/>
       <c r="CK36" s="30"/>
       <c r="CL36" s="30"/>
@@ -5687,44 +5636,42 @@
       <c r="DE36" s="30"/>
       <c r="DF36" s="30"/>
       <c r="DG36" s="30"/>
-      <c r="DH36" s="30"/>
-      <c r="DI36" s="30"/>
-      <c r="DJ36" s="29">
-        <f>SUM(CJ36:DI36)</f>
-        <v>0</v>
-      </c>
-      <c r="DK36" s="29" t="str">
-        <f>HLOOKUP(DJ36,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH36" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI36" s="29" t="str">
+        <f>HLOOKUP(DH36,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ36" s="30"/>
+      <c r="DK36" s="30"/>
       <c r="DL36" s="30"/>
-      <c r="DM36" s="30"/>
-      <c r="DN36" s="30"/>
-      <c r="DO36" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM36" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN36" s="29" t="str">
+        <f>HLOOKUP(DM36,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO36" s="31">
         <v>0</v>
       </c>
       <c r="DP36" s="29" t="str">
-        <f>HLOOKUP(DO36,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ36" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR36" s="29" t="str">
-        <f>HLOOKUP(DQ36,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO36,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="37" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D37" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E37" s="27" t="str">
@@ -5732,23 +5679,23 @@
         <v>F</v>
       </c>
       <c r="F37" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G37" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H37" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I37" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J37" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K37" s="26"/>
@@ -5775,15 +5722,15 @@
       <c r="AF37" s="26"/>
       <c r="AG37" s="26"/>
       <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="29">
-        <f>SUM('GRADE BOOK'!$K37:$AI37)</f>
-        <v>0</v>
-      </c>
-      <c r="AK37" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI37" s="29">
+        <f>SUM('GRADE BOOK'!$K37:$AH37)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="29" t="str">
+        <f>HLOOKUP(AI37,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK37" s="30"/>
       <c r="AL37" s="30"/>
       <c r="AM37" s="30"/>
       <c r="AN37" s="30"/>
@@ -5807,22 +5754,22 @@
       <c r="BF37" s="30"/>
       <c r="BG37" s="30"/>
       <c r="BH37" s="30"/>
-      <c r="BI37" s="30"/>
-      <c r="BJ37" s="29">
+      <c r="BI37" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK37" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL37" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM37" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ37" s="29" t="str">
+        <f>HLOOKUP(BI37,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK37" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="29" t="str">
+        <f>HLOOKUP(BK37,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM37" s="30"/>
       <c r="BN37" s="30"/>
       <c r="BO37" s="30"/>
       <c r="BP37" s="30"/>
@@ -5841,16 +5788,16 @@
       <c r="CC37" s="30"/>
       <c r="CD37" s="30"/>
       <c r="CE37" s="30"/>
-      <c r="CF37" s="30"/>
-      <c r="CG37" s="30"/>
-      <c r="CH37" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI37" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF37" s="29">
+        <f>SUM(BM37:CE37)</f>
+        <v>0</v>
+      </c>
+      <c r="CG37" s="29" t="str">
+        <f>HLOOKUP(CF37,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH37" s="30"/>
+      <c r="CI37" s="30"/>
       <c r="CJ37" s="30"/>
       <c r="CK37" s="30"/>
       <c r="CL37" s="30"/>
@@ -5875,44 +5822,42 @@
       <c r="DE37" s="30"/>
       <c r="DF37" s="30"/>
       <c r="DG37" s="30"/>
-      <c r="DH37" s="30"/>
-      <c r="DI37" s="30"/>
-      <c r="DJ37" s="29">
-        <f>SUM(CJ37:DI37)</f>
-        <v>0</v>
-      </c>
-      <c r="DK37" s="29" t="str">
-        <f>HLOOKUP(DJ37,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH37" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI37" s="29" t="str">
+        <f>HLOOKUP(DH37,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ37" s="30"/>
+      <c r="DK37" s="30"/>
       <c r="DL37" s="30"/>
-      <c r="DM37" s="30"/>
-      <c r="DN37" s="30"/>
-      <c r="DO37" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM37" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN37" s="29" t="str">
+        <f>HLOOKUP(DM37,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO37" s="31">
         <v>0</v>
       </c>
       <c r="DP37" s="29" t="str">
-        <f>HLOOKUP(DO37,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ37" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR37" s="29" t="str">
-        <f>HLOOKUP(DQ37,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO37,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="38" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D38" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E38" s="27" t="str">
@@ -5920,23 +5865,23 @@
         <v>F</v>
       </c>
       <c r="F38" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G38" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H38" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I38" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J38" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K38" s="26"/>
@@ -5963,15 +5908,15 @@
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
       <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="29">
-        <f>SUM('GRADE BOOK'!$K38:$AI38)</f>
-        <v>0</v>
-      </c>
-      <c r="AK38" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI38" s="29">
+        <f>SUM('GRADE BOOK'!$K38:$AH38)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="29" t="str">
+        <f>HLOOKUP(AI38,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK38" s="30"/>
       <c r="AL38" s="30"/>
       <c r="AM38" s="30"/>
       <c r="AN38" s="30"/>
@@ -5995,22 +5940,22 @@
       <c r="BF38" s="30"/>
       <c r="BG38" s="30"/>
       <c r="BH38" s="30"/>
-      <c r="BI38" s="30"/>
-      <c r="BJ38" s="29">
+      <c r="BI38" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK38" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL38" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM38" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ38" s="29" t="str">
+        <f>HLOOKUP(BI38,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK38" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL38" s="29" t="str">
+        <f>HLOOKUP(BK38,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM38" s="30"/>
       <c r="BN38" s="30"/>
       <c r="BO38" s="30"/>
       <c r="BP38" s="30"/>
@@ -6029,16 +5974,16 @@
       <c r="CC38" s="30"/>
       <c r="CD38" s="30"/>
       <c r="CE38" s="30"/>
-      <c r="CF38" s="30"/>
-      <c r="CG38" s="30"/>
-      <c r="CH38" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI38" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF38" s="29">
+        <f>SUM(BM38:CE38)</f>
+        <v>0</v>
+      </c>
+      <c r="CG38" s="29" t="str">
+        <f>HLOOKUP(CF38,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH38" s="30"/>
+      <c r="CI38" s="30"/>
       <c r="CJ38" s="30"/>
       <c r="CK38" s="30"/>
       <c r="CL38" s="30"/>
@@ -6063,44 +6008,42 @@
       <c r="DE38" s="30"/>
       <c r="DF38" s="30"/>
       <c r="DG38" s="30"/>
-      <c r="DH38" s="30"/>
-      <c r="DI38" s="30"/>
-      <c r="DJ38" s="29">
-        <f>SUM(CJ38:DI38)</f>
-        <v>0</v>
-      </c>
-      <c r="DK38" s="29" t="str">
-        <f>HLOOKUP(DJ38,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH38" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI38" s="29" t="str">
+        <f>HLOOKUP(DH38,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ38" s="30"/>
+      <c r="DK38" s="30"/>
       <c r="DL38" s="30"/>
-      <c r="DM38" s="30"/>
-      <c r="DN38" s="30"/>
-      <c r="DO38" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM38" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN38" s="29" t="str">
+        <f>HLOOKUP(DM38,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO38" s="31">
         <v>0</v>
       </c>
       <c r="DP38" s="29" t="str">
-        <f>HLOOKUP(DO38,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ38" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR38" s="29" t="str">
-        <f>HLOOKUP(DQ38,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO38,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="39" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D39" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E39" s="27" t="str">
@@ -6108,23 +6051,23 @@
         <v>F</v>
       </c>
       <c r="F39" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G39" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H39" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I39" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J39" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K39" s="26"/>
@@ -6151,15 +6094,15 @@
       <c r="AF39" s="26"/>
       <c r="AG39" s="26"/>
       <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="29">
-        <f>SUM('GRADE BOOK'!$K39:$AI39)</f>
-        <v>0</v>
-      </c>
-      <c r="AK39" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI39" s="29">
+        <f>SUM('GRADE BOOK'!$K39:$AH39)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="29" t="str">
+        <f>HLOOKUP(AI39,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK39" s="30"/>
       <c r="AL39" s="30"/>
       <c r="AM39" s="30"/>
       <c r="AN39" s="30"/>
@@ -6183,22 +6126,22 @@
       <c r="BF39" s="30"/>
       <c r="BG39" s="30"/>
       <c r="BH39" s="30"/>
-      <c r="BI39" s="30"/>
-      <c r="BJ39" s="29">
+      <c r="BI39" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL39" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM39" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ39" s="29" t="str">
+        <f>HLOOKUP(BI39,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK39" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL39" s="29" t="str">
+        <f>HLOOKUP(BK39,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM39" s="30"/>
       <c r="BN39" s="30"/>
       <c r="BO39" s="30"/>
       <c r="BP39" s="30"/>
@@ -6217,16 +6160,16 @@
       <c r="CC39" s="30"/>
       <c r="CD39" s="30"/>
       <c r="CE39" s="30"/>
-      <c r="CF39" s="30"/>
-      <c r="CG39" s="30"/>
-      <c r="CH39" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI39" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF39" s="29">
+        <f>SUM(BM39:CE39)</f>
+        <v>0</v>
+      </c>
+      <c r="CG39" s="29" t="str">
+        <f>HLOOKUP(CF39,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH39" s="30"/>
+      <c r="CI39" s="30"/>
       <c r="CJ39" s="30"/>
       <c r="CK39" s="30"/>
       <c r="CL39" s="30"/>
@@ -6251,44 +6194,42 @@
       <c r="DE39" s="30"/>
       <c r="DF39" s="30"/>
       <c r="DG39" s="30"/>
-      <c r="DH39" s="30"/>
-      <c r="DI39" s="30"/>
-      <c r="DJ39" s="29">
-        <f>SUM(CJ39:DI39)</f>
-        <v>0</v>
-      </c>
-      <c r="DK39" s="29" t="str">
-        <f>HLOOKUP(DJ39,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH39" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI39" s="29" t="str">
+        <f>HLOOKUP(DH39,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ39" s="30"/>
+      <c r="DK39" s="30"/>
       <c r="DL39" s="30"/>
-      <c r="DM39" s="30"/>
-      <c r="DN39" s="30"/>
-      <c r="DO39" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM39" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN39" s="29" t="str">
+        <f>HLOOKUP(DM39,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO39" s="31">
         <v>0</v>
       </c>
       <c r="DP39" s="29" t="str">
-        <f>HLOOKUP(DO39,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ39" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR39" s="29" t="str">
-        <f>HLOOKUP(DQ39,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO39,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="40" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D40" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E40" s="27" t="str">
@@ -6296,23 +6237,23 @@
         <v>F</v>
       </c>
       <c r="F40" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G40" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H40" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I40" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J40" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K40" s="26"/>
@@ -6339,15 +6280,15 @@
       <c r="AF40" s="26"/>
       <c r="AG40" s="26"/>
       <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="29">
-        <f>SUM('GRADE BOOK'!$K40:$AI40)</f>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI40" s="29">
+        <f>SUM('GRADE BOOK'!$K40:$AH40)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="29" t="str">
+        <f>HLOOKUP(AI40,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK40" s="30"/>
       <c r="AL40" s="30"/>
       <c r="AM40" s="30"/>
       <c r="AN40" s="30"/>
@@ -6371,22 +6312,22 @@
       <c r="BF40" s="30"/>
       <c r="BG40" s="30"/>
       <c r="BH40" s="30"/>
-      <c r="BI40" s="30"/>
-      <c r="BJ40" s="29">
+      <c r="BI40" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK40" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL40" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM40" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ40" s="29" t="str">
+        <f>HLOOKUP(BI40,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK40" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="29" t="str">
+        <f>HLOOKUP(BK40,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM40" s="30"/>
       <c r="BN40" s="30"/>
       <c r="BO40" s="30"/>
       <c r="BP40" s="30"/>
@@ -6405,16 +6346,16 @@
       <c r="CC40" s="30"/>
       <c r="CD40" s="30"/>
       <c r="CE40" s="30"/>
-      <c r="CF40" s="30"/>
-      <c r="CG40" s="30"/>
-      <c r="CH40" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI40" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF40" s="29">
+        <f>SUM(BM40:CE40)</f>
+        <v>0</v>
+      </c>
+      <c r="CG40" s="29" t="str">
+        <f>HLOOKUP(CF40,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH40" s="30"/>
+      <c r="CI40" s="30"/>
       <c r="CJ40" s="30"/>
       <c r="CK40" s="30"/>
       <c r="CL40" s="30"/>
@@ -6439,44 +6380,42 @@
       <c r="DE40" s="30"/>
       <c r="DF40" s="30"/>
       <c r="DG40" s="30"/>
-      <c r="DH40" s="30"/>
-      <c r="DI40" s="30"/>
-      <c r="DJ40" s="29">
-        <f>SUM(CJ40:DI40)</f>
-        <v>0</v>
-      </c>
-      <c r="DK40" s="29" t="str">
-        <f>HLOOKUP(DJ40,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH40" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI40" s="29" t="str">
+        <f>HLOOKUP(DH40,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ40" s="30"/>
+      <c r="DK40" s="30"/>
       <c r="DL40" s="30"/>
-      <c r="DM40" s="30"/>
-      <c r="DN40" s="30"/>
-      <c r="DO40" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM40" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN40" s="29" t="str">
+        <f>HLOOKUP(DM40,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO40" s="31">
         <v>0</v>
       </c>
       <c r="DP40" s="29" t="str">
-        <f>HLOOKUP(DO40,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ40" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR40" s="29" t="str">
-        <f>HLOOKUP(DQ40,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO40,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="41" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D41" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E41" s="27" t="str">
@@ -6484,23 +6423,23 @@
         <v>F</v>
       </c>
       <c r="F41" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G41" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H41" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I41" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J41" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K41" s="26"/>
@@ -6527,15 +6466,15 @@
       <c r="AF41" s="26"/>
       <c r="AG41" s="26"/>
       <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="29">
-        <f>SUM('GRADE BOOK'!$K41:$AI41)</f>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI41" s="29">
+        <f>SUM('GRADE BOOK'!$K41:$AH41)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="29" t="str">
+        <f>HLOOKUP(AI41,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK41" s="30"/>
       <c r="AL41" s="30"/>
       <c r="AM41" s="30"/>
       <c r="AN41" s="30"/>
@@ -6559,22 +6498,22 @@
       <c r="BF41" s="30"/>
       <c r="BG41" s="30"/>
       <c r="BH41" s="30"/>
-      <c r="BI41" s="30"/>
-      <c r="BJ41" s="29">
+      <c r="BI41" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK41" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL41" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM41" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ41" s="29" t="str">
+        <f>HLOOKUP(BI41,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK41" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL41" s="29" t="str">
+        <f>HLOOKUP(BK41,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM41" s="30"/>
       <c r="BN41" s="30"/>
       <c r="BO41" s="30"/>
       <c r="BP41" s="30"/>
@@ -6593,16 +6532,16 @@
       <c r="CC41" s="30"/>
       <c r="CD41" s="30"/>
       <c r="CE41" s="30"/>
-      <c r="CF41" s="30"/>
-      <c r="CG41" s="30"/>
-      <c r="CH41" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI41" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF41" s="29">
+        <f>SUM(BM41:CE41)</f>
+        <v>0</v>
+      </c>
+      <c r="CG41" s="29" t="str">
+        <f>HLOOKUP(CF41,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH41" s="30"/>
+      <c r="CI41" s="30"/>
       <c r="CJ41" s="30"/>
       <c r="CK41" s="30"/>
       <c r="CL41" s="30"/>
@@ -6627,44 +6566,42 @@
       <c r="DE41" s="30"/>
       <c r="DF41" s="30"/>
       <c r="DG41" s="30"/>
-      <c r="DH41" s="30"/>
-      <c r="DI41" s="30"/>
-      <c r="DJ41" s="29">
-        <f>SUM(CJ41:DI41)</f>
-        <v>0</v>
-      </c>
-      <c r="DK41" s="29" t="str">
-        <f>HLOOKUP(DJ41,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH41" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI41" s="29" t="str">
+        <f>HLOOKUP(DH41,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ41" s="30"/>
+      <c r="DK41" s="30"/>
       <c r="DL41" s="30"/>
-      <c r="DM41" s="30"/>
-      <c r="DN41" s="30"/>
-      <c r="DO41" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM41" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN41" s="29" t="str">
+        <f>HLOOKUP(DM41,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO41" s="31">
         <v>0</v>
       </c>
       <c r="DP41" s="29" t="str">
-        <f>HLOOKUP(DO41,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ41" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR41" s="29" t="str">
-        <f>HLOOKUP(DQ41,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO41,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="42" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D42" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E42" s="27" t="str">
@@ -6672,23 +6609,23 @@
         <v>F</v>
       </c>
       <c r="F42" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G42" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H42" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I42" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J42" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K42" s="26"/>
@@ -6715,15 +6652,15 @@
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
       <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="29">
-        <f>SUM('GRADE BOOK'!$K42:$AI42)</f>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI42" s="29">
+        <f>SUM('GRADE BOOK'!$K42:$AH42)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="29" t="str">
+        <f>HLOOKUP(AI42,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK42" s="30"/>
       <c r="AL42" s="30"/>
       <c r="AM42" s="30"/>
       <c r="AN42" s="30"/>
@@ -6747,22 +6684,22 @@
       <c r="BF42" s="30"/>
       <c r="BG42" s="30"/>
       <c r="BH42" s="30"/>
-      <c r="BI42" s="30"/>
-      <c r="BJ42" s="29">
+      <c r="BI42" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK42" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL42" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM42" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ42" s="29" t="str">
+        <f>HLOOKUP(BI42,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK42" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL42" s="29" t="str">
+        <f>HLOOKUP(BK42,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM42" s="30"/>
       <c r="BN42" s="30"/>
       <c r="BO42" s="30"/>
       <c r="BP42" s="30"/>
@@ -6781,16 +6718,16 @@
       <c r="CC42" s="30"/>
       <c r="CD42" s="30"/>
       <c r="CE42" s="30"/>
-      <c r="CF42" s="30"/>
-      <c r="CG42" s="30"/>
-      <c r="CH42" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI42" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF42" s="29">
+        <f>SUM(BM42:CE42)</f>
+        <v>0</v>
+      </c>
+      <c r="CG42" s="29" t="str">
+        <f>HLOOKUP(CF42,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH42" s="30"/>
+      <c r="CI42" s="30"/>
       <c r="CJ42" s="30"/>
       <c r="CK42" s="30"/>
       <c r="CL42" s="30"/>
@@ -6815,44 +6752,42 @@
       <c r="DE42" s="30"/>
       <c r="DF42" s="30"/>
       <c r="DG42" s="30"/>
-      <c r="DH42" s="30"/>
-      <c r="DI42" s="30"/>
-      <c r="DJ42" s="29">
-        <f>SUM(CJ42:DI42)</f>
-        <v>0</v>
-      </c>
-      <c r="DK42" s="29" t="str">
-        <f>HLOOKUP(DJ42,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH42" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI42" s="29" t="str">
+        <f>HLOOKUP(DH42,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ42" s="30"/>
+      <c r="DK42" s="30"/>
       <c r="DL42" s="30"/>
-      <c r="DM42" s="30"/>
-      <c r="DN42" s="30"/>
-      <c r="DO42" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM42" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN42" s="29" t="str">
+        <f>HLOOKUP(DM42,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO42" s="31">
         <v>0</v>
       </c>
       <c r="DP42" s="29" t="str">
-        <f>HLOOKUP(DO42,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ42" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR42" s="29" t="str">
-        <f>HLOOKUP(DQ42,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO42,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="43" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D43" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E43" s="27" t="str">
@@ -6860,23 +6795,23 @@
         <v>F</v>
       </c>
       <c r="F43" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G43" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H43" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I43" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J43" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K43" s="26"/>
@@ -6903,15 +6838,15 @@
       <c r="AF43" s="26"/>
       <c r="AG43" s="26"/>
       <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="29">
-        <f>SUM('GRADE BOOK'!$K43:$AI43)</f>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI43" s="29">
+        <f>SUM('GRADE BOOK'!$K43:$AH43)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="29" t="str">
+        <f>HLOOKUP(AI43,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK43" s="30"/>
       <c r="AL43" s="30"/>
       <c r="AM43" s="30"/>
       <c r="AN43" s="30"/>
@@ -6935,22 +6870,22 @@
       <c r="BF43" s="30"/>
       <c r="BG43" s="30"/>
       <c r="BH43" s="30"/>
-      <c r="BI43" s="30"/>
-      <c r="BJ43" s="29">
+      <c r="BI43" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK43" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL43" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM43" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ43" s="29" t="str">
+        <f>HLOOKUP(BI43,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK43" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL43" s="29" t="str">
+        <f>HLOOKUP(BK43,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM43" s="30"/>
       <c r="BN43" s="30"/>
       <c r="BO43" s="30"/>
       <c r="BP43" s="30"/>
@@ -6969,16 +6904,16 @@
       <c r="CC43" s="30"/>
       <c r="CD43" s="30"/>
       <c r="CE43" s="30"/>
-      <c r="CF43" s="30"/>
-      <c r="CG43" s="30"/>
-      <c r="CH43" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI43" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF43" s="29">
+        <f>SUM(BM43:CE43)</f>
+        <v>0</v>
+      </c>
+      <c r="CG43" s="29" t="str">
+        <f>HLOOKUP(CF43,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH43" s="30"/>
+      <c r="CI43" s="30"/>
       <c r="CJ43" s="30"/>
       <c r="CK43" s="30"/>
       <c r="CL43" s="30"/>
@@ -7003,44 +6938,42 @@
       <c r="DE43" s="30"/>
       <c r="DF43" s="30"/>
       <c r="DG43" s="30"/>
-      <c r="DH43" s="30"/>
-      <c r="DI43" s="30"/>
-      <c r="DJ43" s="29">
-        <f>SUM(CJ43:DI43)</f>
-        <v>0</v>
-      </c>
-      <c r="DK43" s="29" t="str">
-        <f>HLOOKUP(DJ43,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH43" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI43" s="29" t="str">
+        <f>HLOOKUP(DH43,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ43" s="30"/>
+      <c r="DK43" s="30"/>
       <c r="DL43" s="30"/>
-      <c r="DM43" s="30"/>
-      <c r="DN43" s="30"/>
-      <c r="DO43" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM43" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN43" s="29" t="str">
+        <f>HLOOKUP(DM43,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO43" s="31">
         <v>0</v>
       </c>
       <c r="DP43" s="29" t="str">
-        <f>HLOOKUP(DO43,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ43" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR43" s="29" t="str">
-        <f>HLOOKUP(DQ43,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO43,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="44" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D44" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E44" s="27" t="str">
@@ -7048,23 +6981,23 @@
         <v>F</v>
       </c>
       <c r="F44" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G44" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H44" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I44" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J44" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K44" s="26"/>
@@ -7091,15 +7024,15 @@
       <c r="AF44" s="26"/>
       <c r="AG44" s="26"/>
       <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="29">
-        <f>SUM('GRADE BOOK'!$K44:$AI44)</f>
-        <v>0</v>
-      </c>
-      <c r="AK44" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI44" s="29">
+        <f>SUM('GRADE BOOK'!$K44:$AH44)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="29" t="str">
+        <f>HLOOKUP(AI44,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK44" s="30"/>
       <c r="AL44" s="30"/>
       <c r="AM44" s="30"/>
       <c r="AN44" s="30"/>
@@ -7123,22 +7056,22 @@
       <c r="BF44" s="30"/>
       <c r="BG44" s="30"/>
       <c r="BH44" s="30"/>
-      <c r="BI44" s="30"/>
-      <c r="BJ44" s="29">
+      <c r="BI44" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK44" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL44" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM44" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ44" s="29" t="str">
+        <f>HLOOKUP(BI44,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK44" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL44" s="29" t="str">
+        <f>HLOOKUP(BK44,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM44" s="30"/>
       <c r="BN44" s="30"/>
       <c r="BO44" s="30"/>
       <c r="BP44" s="30"/>
@@ -7157,16 +7090,16 @@
       <c r="CC44" s="30"/>
       <c r="CD44" s="30"/>
       <c r="CE44" s="30"/>
-      <c r="CF44" s="30"/>
-      <c r="CG44" s="30"/>
-      <c r="CH44" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI44" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF44" s="29">
+        <f>SUM(BM44:CE44)</f>
+        <v>0</v>
+      </c>
+      <c r="CG44" s="29" t="str">
+        <f>HLOOKUP(CF44,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH44" s="30"/>
+      <c r="CI44" s="30"/>
       <c r="CJ44" s="30"/>
       <c r="CK44" s="30"/>
       <c r="CL44" s="30"/>
@@ -7191,44 +7124,42 @@
       <c r="DE44" s="30"/>
       <c r="DF44" s="30"/>
       <c r="DG44" s="30"/>
-      <c r="DH44" s="30"/>
-      <c r="DI44" s="30"/>
-      <c r="DJ44" s="29">
-        <f>SUM(CJ44:DI44)</f>
-        <v>0</v>
-      </c>
-      <c r="DK44" s="29" t="str">
-        <f>HLOOKUP(DJ44,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH44" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI44" s="29" t="str">
+        <f>HLOOKUP(DH44,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ44" s="30"/>
+      <c r="DK44" s="30"/>
       <c r="DL44" s="30"/>
-      <c r="DM44" s="30"/>
-      <c r="DN44" s="30"/>
-      <c r="DO44" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM44" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN44" s="29" t="str">
+        <f>HLOOKUP(DM44,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO44" s="31">
         <v>0</v>
       </c>
       <c r="DP44" s="29" t="str">
-        <f>HLOOKUP(DO44,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ44" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR44" s="29" t="str">
-        <f>HLOOKUP(DQ44,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO44,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="45" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D45" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E45" s="27" t="str">
@@ -7236,23 +7167,23 @@
         <v>F</v>
       </c>
       <c r="F45" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G45" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H45" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I45" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J45" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K45" s="26"/>
@@ -7279,15 +7210,15 @@
       <c r="AF45" s="26"/>
       <c r="AG45" s="26"/>
       <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="29">
-        <f>SUM('GRADE BOOK'!$K45:$AI45)</f>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI45" s="29">
+        <f>SUM('GRADE BOOK'!$K45:$AH45)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="29" t="str">
+        <f>HLOOKUP(AI45,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK45" s="30"/>
       <c r="AL45" s="30"/>
       <c r="AM45" s="30"/>
       <c r="AN45" s="30"/>
@@ -7311,22 +7242,22 @@
       <c r="BF45" s="30"/>
       <c r="BG45" s="30"/>
       <c r="BH45" s="30"/>
-      <c r="BI45" s="30"/>
-      <c r="BJ45" s="29">
+      <c r="BI45" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK45" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL45" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM45" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ45" s="29" t="str">
+        <f>HLOOKUP(BI45,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK45" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL45" s="29" t="str">
+        <f>HLOOKUP(BK45,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM45" s="30"/>
       <c r="BN45" s="30"/>
       <c r="BO45" s="30"/>
       <c r="BP45" s="30"/>
@@ -7345,16 +7276,16 @@
       <c r="CC45" s="30"/>
       <c r="CD45" s="30"/>
       <c r="CE45" s="30"/>
-      <c r="CF45" s="30"/>
-      <c r="CG45" s="30"/>
-      <c r="CH45" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI45" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF45" s="29">
+        <f>SUM(BM45:CE45)</f>
+        <v>0</v>
+      </c>
+      <c r="CG45" s="29" t="str">
+        <f>HLOOKUP(CF45,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH45" s="30"/>
+      <c r="CI45" s="30"/>
       <c r="CJ45" s="30"/>
       <c r="CK45" s="30"/>
       <c r="CL45" s="30"/>
@@ -7379,44 +7310,42 @@
       <c r="DE45" s="30"/>
       <c r="DF45" s="30"/>
       <c r="DG45" s="30"/>
-      <c r="DH45" s="30"/>
-      <c r="DI45" s="30"/>
-      <c r="DJ45" s="29">
-        <f>SUM(CJ45:DI45)</f>
-        <v>0</v>
-      </c>
-      <c r="DK45" s="29" t="str">
-        <f>HLOOKUP(DJ45,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH45" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI45" s="29" t="str">
+        <f>HLOOKUP(DH45,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ45" s="30"/>
+      <c r="DK45" s="30"/>
       <c r="DL45" s="30"/>
-      <c r="DM45" s="30"/>
-      <c r="DN45" s="30"/>
-      <c r="DO45" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM45" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN45" s="29" t="str">
+        <f>HLOOKUP(DM45,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO45" s="31">
         <v>0</v>
       </c>
       <c r="DP45" s="29" t="str">
-        <f>HLOOKUP(DO45,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ45" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR45" s="29" t="str">
-        <f>HLOOKUP(DQ45,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO45,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="46" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D46" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E46" s="27" t="str">
@@ -7424,23 +7353,23 @@
         <v>F</v>
       </c>
       <c r="F46" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G46" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H46" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I46" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J46" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K46" s="26"/>
@@ -7467,15 +7396,15 @@
       <c r="AF46" s="26"/>
       <c r="AG46" s="26"/>
       <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="29">
-        <f>SUM('GRADE BOOK'!$K46:$AI46)</f>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI46" s="29">
+        <f>SUM('GRADE BOOK'!$K46:$AH46)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="29" t="str">
+        <f>HLOOKUP(AI46,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK46" s="30"/>
       <c r="AL46" s="30"/>
       <c r="AM46" s="30"/>
       <c r="AN46" s="30"/>
@@ -7499,22 +7428,22 @@
       <c r="BF46" s="30"/>
       <c r="BG46" s="30"/>
       <c r="BH46" s="30"/>
-      <c r="BI46" s="30"/>
-      <c r="BJ46" s="29">
+      <c r="BI46" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK46" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL46" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM46" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ46" s="29" t="str">
+        <f>HLOOKUP(BI46,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK46" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL46" s="29" t="str">
+        <f>HLOOKUP(BK46,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM46" s="30"/>
       <c r="BN46" s="30"/>
       <c r="BO46" s="30"/>
       <c r="BP46" s="30"/>
@@ -7533,16 +7462,16 @@
       <c r="CC46" s="30"/>
       <c r="CD46" s="30"/>
       <c r="CE46" s="30"/>
-      <c r="CF46" s="30"/>
-      <c r="CG46" s="30"/>
-      <c r="CH46" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI46" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF46" s="29">
+        <f>SUM(BM46:CE46)</f>
+        <v>0</v>
+      </c>
+      <c r="CG46" s="29" t="str">
+        <f>HLOOKUP(CF46,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH46" s="30"/>
+      <c r="CI46" s="30"/>
       <c r="CJ46" s="30"/>
       <c r="CK46" s="30"/>
       <c r="CL46" s="30"/>
@@ -7567,44 +7496,42 @@
       <c r="DE46" s="30"/>
       <c r="DF46" s="30"/>
       <c r="DG46" s="30"/>
-      <c r="DH46" s="30"/>
-      <c r="DI46" s="30"/>
-      <c r="DJ46" s="29">
-        <f>SUM(CJ46:DI46)</f>
-        <v>0</v>
-      </c>
-      <c r="DK46" s="29" t="str">
-        <f>HLOOKUP(DJ46,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH46" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI46" s="29" t="str">
+        <f>HLOOKUP(DH46,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ46" s="30"/>
+      <c r="DK46" s="30"/>
       <c r="DL46" s="30"/>
-      <c r="DM46" s="30"/>
-      <c r="DN46" s="30"/>
-      <c r="DO46" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM46" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN46" s="29" t="str">
+        <f>HLOOKUP(DM46,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO46" s="31">
         <v>0</v>
       </c>
       <c r="DP46" s="29" t="str">
-        <f>HLOOKUP(DO46,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ46" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR46" s="29" t="str">
-        <f>HLOOKUP(DQ46,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO46,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D47" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E47" s="27" t="str">
@@ -7612,23 +7539,23 @@
         <v>F</v>
       </c>
       <c r="F47" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G47" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H47" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I47" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J47" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K47" s="26"/>
@@ -7655,15 +7582,15 @@
       <c r="AF47" s="26"/>
       <c r="AG47" s="26"/>
       <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="29">
-        <f>SUM('GRADE BOOK'!$K47:$AI47)</f>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI47" s="29">
+        <f>SUM('GRADE BOOK'!$K47:$AH47)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="29" t="str">
+        <f>HLOOKUP(AI47,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK47" s="30"/>
       <c r="AL47" s="30"/>
       <c r="AM47" s="30"/>
       <c r="AN47" s="30"/>
@@ -7687,22 +7614,22 @@
       <c r="BF47" s="30"/>
       <c r="BG47" s="30"/>
       <c r="BH47" s="30"/>
-      <c r="BI47" s="30"/>
-      <c r="BJ47" s="29">
+      <c r="BI47" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK47" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL47" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM47" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ47" s="29" t="str">
+        <f>HLOOKUP(BI47,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK47" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL47" s="29" t="str">
+        <f>HLOOKUP(BK47,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM47" s="30"/>
       <c r="BN47" s="30"/>
       <c r="BO47" s="30"/>
       <c r="BP47" s="30"/>
@@ -7721,16 +7648,16 @@
       <c r="CC47" s="30"/>
       <c r="CD47" s="30"/>
       <c r="CE47" s="30"/>
-      <c r="CF47" s="30"/>
-      <c r="CG47" s="30"/>
-      <c r="CH47" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI47" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF47" s="29">
+        <f>SUM(BM47:CE47)</f>
+        <v>0</v>
+      </c>
+      <c r="CG47" s="29" t="str">
+        <f>HLOOKUP(CF47,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH47" s="30"/>
+      <c r="CI47" s="30"/>
       <c r="CJ47" s="30"/>
       <c r="CK47" s="30"/>
       <c r="CL47" s="30"/>
@@ -7755,44 +7682,42 @@
       <c r="DE47" s="30"/>
       <c r="DF47" s="30"/>
       <c r="DG47" s="30"/>
-      <c r="DH47" s="30"/>
-      <c r="DI47" s="30"/>
-      <c r="DJ47" s="29">
-        <f>SUM(CJ47:DI47)</f>
-        <v>0</v>
-      </c>
-      <c r="DK47" s="29" t="str">
-        <f>HLOOKUP(DJ47,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH47" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI47" s="29" t="str">
+        <f>HLOOKUP(DH47,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ47" s="30"/>
+      <c r="DK47" s="30"/>
       <c r="DL47" s="30"/>
-      <c r="DM47" s="30"/>
-      <c r="DN47" s="30"/>
-      <c r="DO47" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM47" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN47" s="29" t="str">
+        <f>HLOOKUP(DM47,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO47" s="31">
         <v>0</v>
       </c>
       <c r="DP47" s="29" t="str">
-        <f>HLOOKUP(DO47,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ47" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR47" s="29" t="str">
-        <f>HLOOKUP(DQ47,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO47,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="48" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D48" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E48" s="27" t="str">
@@ -7800,23 +7725,23 @@
         <v>F</v>
       </c>
       <c r="F48" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G48" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H48" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I48" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J48" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K48" s="26"/>
@@ -7843,15 +7768,15 @@
       <c r="AF48" s="26"/>
       <c r="AG48" s="26"/>
       <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="29">
-        <f>SUM('GRADE BOOK'!$K48:$AI48)</f>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI48" s="29">
+        <f>SUM('GRADE BOOK'!$K48:$AH48)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="29" t="str">
+        <f>HLOOKUP(AI48,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK48" s="30"/>
       <c r="AL48" s="30"/>
       <c r="AM48" s="30"/>
       <c r="AN48" s="30"/>
@@ -7875,22 +7800,22 @@
       <c r="BF48" s="30"/>
       <c r="BG48" s="30"/>
       <c r="BH48" s="30"/>
-      <c r="BI48" s="30"/>
-      <c r="BJ48" s="29">
+      <c r="BI48" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK48" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL48" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM48" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ48" s="29" t="str">
+        <f>HLOOKUP(BI48,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK48" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL48" s="29" t="str">
+        <f>HLOOKUP(BK48,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM48" s="30"/>
       <c r="BN48" s="30"/>
       <c r="BO48" s="30"/>
       <c r="BP48" s="30"/>
@@ -7909,16 +7834,16 @@
       <c r="CC48" s="30"/>
       <c r="CD48" s="30"/>
       <c r="CE48" s="30"/>
-      <c r="CF48" s="30"/>
-      <c r="CG48" s="30"/>
-      <c r="CH48" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI48" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF48" s="29">
+        <f>SUM(BM48:CE48)</f>
+        <v>0</v>
+      </c>
+      <c r="CG48" s="29" t="str">
+        <f>HLOOKUP(CF48,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH48" s="30"/>
+      <c r="CI48" s="30"/>
       <c r="CJ48" s="30"/>
       <c r="CK48" s="30"/>
       <c r="CL48" s="30"/>
@@ -7943,44 +7868,42 @@
       <c r="DE48" s="30"/>
       <c r="DF48" s="30"/>
       <c r="DG48" s="30"/>
-      <c r="DH48" s="30"/>
-      <c r="DI48" s="30"/>
-      <c r="DJ48" s="29">
-        <f>SUM(CJ48:DI48)</f>
-        <v>0</v>
-      </c>
-      <c r="DK48" s="29" t="str">
-        <f>HLOOKUP(DJ48,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH48" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI48" s="29" t="str">
+        <f>HLOOKUP(DH48,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ48" s="30"/>
+      <c r="DK48" s="30"/>
       <c r="DL48" s="30"/>
-      <c r="DM48" s="30"/>
-      <c r="DN48" s="30"/>
-      <c r="DO48" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM48" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN48" s="29" t="str">
+        <f>HLOOKUP(DM48,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO48" s="31">
         <v>0</v>
       </c>
       <c r="DP48" s="29" t="str">
-        <f>HLOOKUP(DO48,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ48" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR48" s="29" t="str">
-        <f>HLOOKUP(DQ48,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO48,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="49" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D49" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E49" s="27" t="str">
@@ -7988,23 +7911,23 @@
         <v>F</v>
       </c>
       <c r="F49" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G49" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H49" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I49" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J49" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K49" s="26"/>
@@ -8031,15 +7954,15 @@
       <c r="AF49" s="26"/>
       <c r="AG49" s="26"/>
       <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="29">
-        <f>SUM('GRADE BOOK'!$K49:$AI49)</f>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI49" s="29">
+        <f>SUM('GRADE BOOK'!$K49:$AH49)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="29" t="str">
+        <f>HLOOKUP(AI49,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK49" s="30"/>
       <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
       <c r="AN49" s="30"/>
@@ -8063,22 +7986,22 @@
       <c r="BF49" s="30"/>
       <c r="BG49" s="30"/>
       <c r="BH49" s="30"/>
-      <c r="BI49" s="30"/>
-      <c r="BJ49" s="29">
+      <c r="BI49" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK49" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL49" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM49" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ49" s="29" t="str">
+        <f>HLOOKUP(BI49,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK49" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL49" s="29" t="str">
+        <f>HLOOKUP(BK49,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM49" s="30"/>
       <c r="BN49" s="30"/>
       <c r="BO49" s="30"/>
       <c r="BP49" s="30"/>
@@ -8097,16 +8020,16 @@
       <c r="CC49" s="30"/>
       <c r="CD49" s="30"/>
       <c r="CE49" s="30"/>
-      <c r="CF49" s="30"/>
-      <c r="CG49" s="30"/>
-      <c r="CH49" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI49" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF49" s="29">
+        <f>SUM(BM49:CE49)</f>
+        <v>0</v>
+      </c>
+      <c r="CG49" s="29" t="str">
+        <f>HLOOKUP(CF49,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH49" s="30"/>
+      <c r="CI49" s="30"/>
       <c r="CJ49" s="30"/>
       <c r="CK49" s="30"/>
       <c r="CL49" s="30"/>
@@ -8131,44 +8054,42 @@
       <c r="DE49" s="30"/>
       <c r="DF49" s="30"/>
       <c r="DG49" s="30"/>
-      <c r="DH49" s="30"/>
-      <c r="DI49" s="30"/>
-      <c r="DJ49" s="29">
-        <f>SUM(CJ49:DI49)</f>
-        <v>0</v>
-      </c>
-      <c r="DK49" s="29" t="str">
-        <f>HLOOKUP(DJ49,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH49" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI49" s="29" t="str">
+        <f>HLOOKUP(DH49,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ49" s="30"/>
+      <c r="DK49" s="30"/>
       <c r="DL49" s="30"/>
-      <c r="DM49" s="30"/>
-      <c r="DN49" s="30"/>
-      <c r="DO49" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM49" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN49" s="29" t="str">
+        <f>HLOOKUP(DM49,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO49" s="31">
         <v>0</v>
       </c>
       <c r="DP49" s="29" t="str">
-        <f>HLOOKUP(DO49,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ49" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR49" s="29" t="str">
-        <f>HLOOKUP(DQ49,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO49,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="50" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D50" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E50" s="27" t="str">
@@ -8176,23 +8097,23 @@
         <v>F</v>
       </c>
       <c r="F50" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G50" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H50" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I50" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J50" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K50" s="26"/>
@@ -8219,15 +8140,15 @@
       <c r="AF50" s="26"/>
       <c r="AG50" s="26"/>
       <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="29">
-        <f>SUM('GRADE BOOK'!$K50:$AI50)</f>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI50" s="29">
+        <f>SUM('GRADE BOOK'!$K50:$AH50)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="29" t="str">
+        <f>HLOOKUP(AI50,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK50" s="30"/>
       <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
       <c r="AN50" s="30"/>
@@ -8251,22 +8172,22 @@
       <c r="BF50" s="30"/>
       <c r="BG50" s="30"/>
       <c r="BH50" s="30"/>
-      <c r="BI50" s="30"/>
-      <c r="BJ50" s="29">
+      <c r="BI50" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK50" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL50" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM50" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ50" s="29" t="str">
+        <f>HLOOKUP(BI50,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK50" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL50" s="29" t="str">
+        <f>HLOOKUP(BK50,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM50" s="30"/>
       <c r="BN50" s="30"/>
       <c r="BO50" s="30"/>
       <c r="BP50" s="30"/>
@@ -8285,16 +8206,16 @@
       <c r="CC50" s="30"/>
       <c r="CD50" s="30"/>
       <c r="CE50" s="30"/>
-      <c r="CF50" s="30"/>
-      <c r="CG50" s="30"/>
-      <c r="CH50" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI50" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF50" s="29">
+        <f>SUM(BM50:CE50)</f>
+        <v>0</v>
+      </c>
+      <c r="CG50" s="29" t="str">
+        <f>HLOOKUP(CF50,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH50" s="30"/>
+      <c r="CI50" s="30"/>
       <c r="CJ50" s="30"/>
       <c r="CK50" s="30"/>
       <c r="CL50" s="30"/>
@@ -8319,44 +8240,42 @@
       <c r="DE50" s="30"/>
       <c r="DF50" s="30"/>
       <c r="DG50" s="30"/>
-      <c r="DH50" s="30"/>
-      <c r="DI50" s="30"/>
-      <c r="DJ50" s="29">
-        <f>SUM(CJ50:DI50)</f>
-        <v>0</v>
-      </c>
-      <c r="DK50" s="29" t="str">
-        <f>HLOOKUP(DJ50,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH50" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI50" s="29" t="str">
+        <f>HLOOKUP(DH50,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ50" s="30"/>
+      <c r="DK50" s="30"/>
       <c r="DL50" s="30"/>
-      <c r="DM50" s="30"/>
-      <c r="DN50" s="30"/>
-      <c r="DO50" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM50" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN50" s="29" t="str">
+        <f>HLOOKUP(DM50,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO50" s="31">
         <v>0</v>
       </c>
       <c r="DP50" s="29" t="str">
-        <f>HLOOKUP(DO50,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ50" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR50" s="29" t="str">
-        <f>HLOOKUP(DQ50,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO50,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="51" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D51" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E51" s="27" t="str">
@@ -8364,23 +8283,23 @@
         <v>F</v>
       </c>
       <c r="F51" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G51" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H51" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I51" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J51" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K51" s="26"/>
@@ -8407,15 +8326,15 @@
       <c r="AF51" s="26"/>
       <c r="AG51" s="26"/>
       <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="29">
-        <f>SUM('GRADE BOOK'!$K51:$AI51)</f>
-        <v>0</v>
-      </c>
-      <c r="AK51" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI51" s="29">
+        <f>SUM('GRADE BOOK'!$K51:$AH51)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="29" t="str">
+        <f>HLOOKUP(AI51,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK51" s="30"/>
       <c r="AL51" s="30"/>
       <c r="AM51" s="30"/>
       <c r="AN51" s="30"/>
@@ -8439,22 +8358,22 @@
       <c r="BF51" s="30"/>
       <c r="BG51" s="30"/>
       <c r="BH51" s="30"/>
-      <c r="BI51" s="30"/>
-      <c r="BJ51" s="29">
+      <c r="BI51" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK51" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL51" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM51" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ51" s="29" t="str">
+        <f>HLOOKUP(BI51,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK51" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL51" s="29" t="str">
+        <f>HLOOKUP(BK51,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM51" s="30"/>
       <c r="BN51" s="30"/>
       <c r="BO51" s="30"/>
       <c r="BP51" s="30"/>
@@ -8473,16 +8392,16 @@
       <c r="CC51" s="30"/>
       <c r="CD51" s="30"/>
       <c r="CE51" s="30"/>
-      <c r="CF51" s="30"/>
-      <c r="CG51" s="30"/>
-      <c r="CH51" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI51" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF51" s="29">
+        <f>SUM(BM51:CE51)</f>
+        <v>0</v>
+      </c>
+      <c r="CG51" s="29" t="str">
+        <f>HLOOKUP(CF51,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH51" s="30"/>
+      <c r="CI51" s="30"/>
       <c r="CJ51" s="30"/>
       <c r="CK51" s="30"/>
       <c r="CL51" s="30"/>
@@ -8507,44 +8426,42 @@
       <c r="DE51" s="30"/>
       <c r="DF51" s="30"/>
       <c r="DG51" s="30"/>
-      <c r="DH51" s="30"/>
-      <c r="DI51" s="30"/>
-      <c r="DJ51" s="29">
-        <f>SUM(CJ51:DI51)</f>
-        <v>0</v>
-      </c>
-      <c r="DK51" s="29" t="str">
-        <f>HLOOKUP(DJ51,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH51" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI51" s="29" t="str">
+        <f>HLOOKUP(DH51,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ51" s="30"/>
+      <c r="DK51" s="30"/>
       <c r="DL51" s="30"/>
-      <c r="DM51" s="30"/>
-      <c r="DN51" s="30"/>
-      <c r="DO51" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM51" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN51" s="29" t="str">
+        <f>HLOOKUP(DM51,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO51" s="31">
         <v>0</v>
       </c>
       <c r="DP51" s="29" t="str">
-        <f>HLOOKUP(DO51,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ51" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR51" s="29" t="str">
-        <f>HLOOKUP(DQ51,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO51,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="52" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D52" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E52" s="27" t="str">
@@ -8552,23 +8469,23 @@
         <v>F</v>
       </c>
       <c r="F52" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G52" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H52" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I52" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J52" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K52" s="26"/>
@@ -8595,15 +8512,15 @@
       <c r="AF52" s="26"/>
       <c r="AG52" s="26"/>
       <c r="AH52" s="26"/>
-      <c r="AI52" s="26"/>
-      <c r="AJ52" s="29">
-        <f>SUM('GRADE BOOK'!$K52:$AI52)</f>
-        <v>0</v>
-      </c>
-      <c r="AK52" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI52" s="29">
+        <f>SUM('GRADE BOOK'!$K52:$AH52)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="29" t="str">
+        <f>HLOOKUP(AI52,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK52" s="30"/>
       <c r="AL52" s="30"/>
       <c r="AM52" s="30"/>
       <c r="AN52" s="30"/>
@@ -8627,22 +8544,22 @@
       <c r="BF52" s="30"/>
       <c r="BG52" s="30"/>
       <c r="BH52" s="30"/>
-      <c r="BI52" s="30"/>
-      <c r="BJ52" s="29">
+      <c r="BI52" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK52" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL52" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM52" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ52" s="29" t="str">
+        <f>HLOOKUP(BI52,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK52" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL52" s="29" t="str">
+        <f>HLOOKUP(BK52,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM52" s="30"/>
       <c r="BN52" s="30"/>
       <c r="BO52" s="30"/>
       <c r="BP52" s="30"/>
@@ -8661,16 +8578,16 @@
       <c r="CC52" s="30"/>
       <c r="CD52" s="30"/>
       <c r="CE52" s="30"/>
-      <c r="CF52" s="30"/>
-      <c r="CG52" s="30"/>
-      <c r="CH52" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI52" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF52" s="29">
+        <f>SUM(BM52:CE52)</f>
+        <v>0</v>
+      </c>
+      <c r="CG52" s="29" t="str">
+        <f>HLOOKUP(CF52,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH52" s="30"/>
+      <c r="CI52" s="30"/>
       <c r="CJ52" s="30"/>
       <c r="CK52" s="30"/>
       <c r="CL52" s="30"/>
@@ -8695,44 +8612,42 @@
       <c r="DE52" s="30"/>
       <c r="DF52" s="30"/>
       <c r="DG52" s="30"/>
-      <c r="DH52" s="30"/>
-      <c r="DI52" s="30"/>
-      <c r="DJ52" s="29">
-        <f>SUM(CJ52:DI52)</f>
-        <v>0</v>
-      </c>
-      <c r="DK52" s="29" t="str">
-        <f>HLOOKUP(DJ52,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH52" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI52" s="29" t="str">
+        <f>HLOOKUP(DH52,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ52" s="30"/>
+      <c r="DK52" s="30"/>
       <c r="DL52" s="30"/>
-      <c r="DM52" s="30"/>
-      <c r="DN52" s="30"/>
-      <c r="DO52" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM52" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN52" s="29" t="str">
+        <f>HLOOKUP(DM52,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO52" s="31">
         <v>0</v>
       </c>
       <c r="DP52" s="29" t="str">
-        <f>HLOOKUP(DO52,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ52" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR52" s="29" t="str">
-        <f>HLOOKUP(DQ52,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO52,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="53" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D53" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E53" s="27" t="str">
@@ -8740,23 +8655,23 @@
         <v>F</v>
       </c>
       <c r="F53" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G53" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H53" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I53" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J53" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K53" s="26"/>
@@ -8783,15 +8698,15 @@
       <c r="AF53" s="26"/>
       <c r="AG53" s="26"/>
       <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
-      <c r="AJ53" s="29">
-        <f>SUM('GRADE BOOK'!$K53:$AI53)</f>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI53" s="29">
+        <f>SUM('GRADE BOOK'!$K53:$AH53)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="29" t="str">
+        <f>HLOOKUP(AI53,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK53" s="30"/>
       <c r="AL53" s="30"/>
       <c r="AM53" s="30"/>
       <c r="AN53" s="30"/>
@@ -8815,22 +8730,22 @@
       <c r="BF53" s="30"/>
       <c r="BG53" s="30"/>
       <c r="BH53" s="30"/>
-      <c r="BI53" s="30"/>
-      <c r="BJ53" s="29">
+      <c r="BI53" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK53" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL53" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM53" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ53" s="29" t="str">
+        <f>HLOOKUP(BI53,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK53" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL53" s="29" t="str">
+        <f>HLOOKUP(BK53,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM53" s="30"/>
       <c r="BN53" s="30"/>
       <c r="BO53" s="30"/>
       <c r="BP53" s="30"/>
@@ -8849,16 +8764,16 @@
       <c r="CC53" s="30"/>
       <c r="CD53" s="30"/>
       <c r="CE53" s="30"/>
-      <c r="CF53" s="30"/>
-      <c r="CG53" s="30"/>
-      <c r="CH53" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI53" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF53" s="29">
+        <f>SUM(BM53:CE53)</f>
+        <v>0</v>
+      </c>
+      <c r="CG53" s="29" t="str">
+        <f>HLOOKUP(CF53,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH53" s="30"/>
+      <c r="CI53" s="30"/>
       <c r="CJ53" s="30"/>
       <c r="CK53" s="30"/>
       <c r="CL53" s="30"/>
@@ -8883,44 +8798,42 @@
       <c r="DE53" s="30"/>
       <c r="DF53" s="30"/>
       <c r="DG53" s="30"/>
-      <c r="DH53" s="30"/>
-      <c r="DI53" s="30"/>
-      <c r="DJ53" s="29">
-        <f>SUM(CJ53:DI53)</f>
-        <v>0</v>
-      </c>
-      <c r="DK53" s="29" t="str">
-        <f>HLOOKUP(DJ53,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH53" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI53" s="29" t="str">
+        <f>HLOOKUP(DH53,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ53" s="30"/>
+      <c r="DK53" s="30"/>
       <c r="DL53" s="30"/>
-      <c r="DM53" s="30"/>
-      <c r="DN53" s="30"/>
-      <c r="DO53" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM53" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN53" s="29" t="str">
+        <f>HLOOKUP(DM53,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO53" s="31">
         <v>0</v>
       </c>
       <c r="DP53" s="29" t="str">
-        <f>HLOOKUP(DO53,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ53" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR53" s="29" t="str">
-        <f>HLOOKUP(DQ53,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO53,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="54" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D54" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E54" s="27" t="str">
@@ -8928,23 +8841,23 @@
         <v>F</v>
       </c>
       <c r="F54" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G54" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H54" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I54" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J54" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K54" s="26"/>
@@ -8971,15 +8884,15 @@
       <c r="AF54" s="26"/>
       <c r="AG54" s="26"/>
       <c r="AH54" s="26"/>
-      <c r="AI54" s="26"/>
-      <c r="AJ54" s="29">
-        <f>SUM('GRADE BOOK'!$K54:$AI54)</f>
-        <v>0</v>
-      </c>
-      <c r="AK54" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI54" s="29">
+        <f>SUM('GRADE BOOK'!$K54:$AH54)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="29" t="str">
+        <f>HLOOKUP(AI54,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK54" s="30"/>
       <c r="AL54" s="30"/>
       <c r="AM54" s="30"/>
       <c r="AN54" s="30"/>
@@ -9003,22 +8916,22 @@
       <c r="BF54" s="30"/>
       <c r="BG54" s="30"/>
       <c r="BH54" s="30"/>
-      <c r="BI54" s="30"/>
-      <c r="BJ54" s="29">
+      <c r="BI54" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK54" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL54" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM54" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ54" s="29" t="str">
+        <f>HLOOKUP(BI54,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK54" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL54" s="29" t="str">
+        <f>HLOOKUP(BK54,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM54" s="30"/>
       <c r="BN54" s="30"/>
       <c r="BO54" s="30"/>
       <c r="BP54" s="30"/>
@@ -9037,16 +8950,16 @@
       <c r="CC54" s="30"/>
       <c r="CD54" s="30"/>
       <c r="CE54" s="30"/>
-      <c r="CF54" s="30"/>
-      <c r="CG54" s="30"/>
-      <c r="CH54" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI54" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF54" s="29">
+        <f>SUM(BM54:CE54)</f>
+        <v>0</v>
+      </c>
+      <c r="CG54" s="29" t="str">
+        <f>HLOOKUP(CF54,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH54" s="30"/>
+      <c r="CI54" s="30"/>
       <c r="CJ54" s="30"/>
       <c r="CK54" s="30"/>
       <c r="CL54" s="30"/>
@@ -9071,44 +8984,42 @@
       <c r="DE54" s="30"/>
       <c r="DF54" s="30"/>
       <c r="DG54" s="30"/>
-      <c r="DH54" s="30"/>
-      <c r="DI54" s="30"/>
-      <c r="DJ54" s="29">
-        <f>SUM(CJ54:DI54)</f>
-        <v>0</v>
-      </c>
-      <c r="DK54" s="29" t="str">
-        <f>HLOOKUP(DJ54,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH54" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI54" s="29" t="str">
+        <f>HLOOKUP(DH54,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ54" s="30"/>
+      <c r="DK54" s="30"/>
       <c r="DL54" s="30"/>
-      <c r="DM54" s="30"/>
-      <c r="DN54" s="30"/>
-      <c r="DO54" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM54" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN54" s="29" t="str">
+        <f>HLOOKUP(DM54,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO54" s="31">
         <v>0</v>
       </c>
       <c r="DP54" s="29" t="str">
-        <f>HLOOKUP(DO54,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ54" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR54" s="29" t="str">
-        <f>HLOOKUP(DQ54,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO54,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="55" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D55" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E55" s="27" t="str">
@@ -9116,23 +9027,23 @@
         <v>F</v>
       </c>
       <c r="F55" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G55" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H55" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I55" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J55" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K55" s="26"/>
@@ -9159,15 +9070,15 @@
       <c r="AF55" s="26"/>
       <c r="AG55" s="26"/>
       <c r="AH55" s="26"/>
-      <c r="AI55" s="26"/>
-      <c r="AJ55" s="29">
-        <f>SUM('GRADE BOOK'!$K55:$AI55)</f>
-        <v>0</v>
-      </c>
-      <c r="AK55" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI55" s="29">
+        <f>SUM('GRADE BOOK'!$K55:$AH55)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="29" t="str">
+        <f>HLOOKUP(AI55,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK55" s="30"/>
       <c r="AL55" s="30"/>
       <c r="AM55" s="30"/>
       <c r="AN55" s="30"/>
@@ -9191,22 +9102,22 @@
       <c r="BF55" s="30"/>
       <c r="BG55" s="30"/>
       <c r="BH55" s="30"/>
-      <c r="BI55" s="30"/>
-      <c r="BJ55" s="29">
+      <c r="BI55" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK55" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL55" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM55" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ55" s="29" t="str">
+        <f>HLOOKUP(BI55,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK55" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL55" s="29" t="str">
+        <f>HLOOKUP(BK55,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM55" s="30"/>
       <c r="BN55" s="30"/>
       <c r="BO55" s="30"/>
       <c r="BP55" s="30"/>
@@ -9225,16 +9136,16 @@
       <c r="CC55" s="30"/>
       <c r="CD55" s="30"/>
       <c r="CE55" s="30"/>
-      <c r="CF55" s="30"/>
-      <c r="CG55" s="30"/>
-      <c r="CH55" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF55" s="29">
+        <f>SUM(BM55:CE55)</f>
+        <v>0</v>
+      </c>
+      <c r="CG55" s="29" t="str">
+        <f>HLOOKUP(CF55,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH55" s="30"/>
+      <c r="CI55" s="30"/>
       <c r="CJ55" s="30"/>
       <c r="CK55" s="30"/>
       <c r="CL55" s="30"/>
@@ -9259,44 +9170,42 @@
       <c r="DE55" s="30"/>
       <c r="DF55" s="30"/>
       <c r="DG55" s="30"/>
-      <c r="DH55" s="30"/>
-      <c r="DI55" s="30"/>
-      <c r="DJ55" s="29">
-        <f>SUM(CJ55:DI55)</f>
-        <v>0</v>
-      </c>
-      <c r="DK55" s="29" t="str">
-        <f>HLOOKUP(DJ55,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH55" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI55" s="29" t="str">
+        <f>HLOOKUP(DH55,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ55" s="30"/>
+      <c r="DK55" s="30"/>
       <c r="DL55" s="30"/>
-      <c r="DM55" s="30"/>
-      <c r="DN55" s="30"/>
-      <c r="DO55" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM55" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN55" s="29" t="str">
+        <f>HLOOKUP(DM55,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO55" s="31">
         <v>0</v>
       </c>
       <c r="DP55" s="29" t="str">
-        <f>HLOOKUP(DO55,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ55" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR55" s="29" t="str">
-        <f>HLOOKUP(DQ55,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO55,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="56" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D56" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E56" s="27" t="str">
@@ -9304,23 +9213,23 @@
         <v>F</v>
       </c>
       <c r="F56" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G56" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H56" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I56" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J56" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K56" s="26"/>
@@ -9347,15 +9256,15 @@
       <c r="AF56" s="26"/>
       <c r="AG56" s="26"/>
       <c r="AH56" s="26"/>
-      <c r="AI56" s="26"/>
-      <c r="AJ56" s="29">
-        <f>SUM('GRADE BOOK'!$K56:$AI56)</f>
-        <v>0</v>
-      </c>
-      <c r="AK56" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI56" s="29">
+        <f>SUM('GRADE BOOK'!$K56:$AH56)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="29" t="str">
+        <f>HLOOKUP(AI56,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK56" s="30"/>
       <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
       <c r="AN56" s="30"/>
@@ -9379,22 +9288,22 @@
       <c r="BF56" s="30"/>
       <c r="BG56" s="30"/>
       <c r="BH56" s="30"/>
-      <c r="BI56" s="30"/>
-      <c r="BJ56" s="29">
+      <c r="BI56" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK56" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL56" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM56" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ56" s="29" t="str">
+        <f>HLOOKUP(BI56,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK56" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL56" s="29" t="str">
+        <f>HLOOKUP(BK56,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM56" s="30"/>
       <c r="BN56" s="30"/>
       <c r="BO56" s="30"/>
       <c r="BP56" s="30"/>
@@ -9413,16 +9322,16 @@
       <c r="CC56" s="30"/>
       <c r="CD56" s="30"/>
       <c r="CE56" s="30"/>
-      <c r="CF56" s="30"/>
-      <c r="CG56" s="30"/>
-      <c r="CH56" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI56" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF56" s="29">
+        <f>SUM(BM56:CE56)</f>
+        <v>0</v>
+      </c>
+      <c r="CG56" s="29" t="str">
+        <f>HLOOKUP(CF56,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH56" s="30"/>
+      <c r="CI56" s="30"/>
       <c r="CJ56" s="30"/>
       <c r="CK56" s="30"/>
       <c r="CL56" s="30"/>
@@ -9447,44 +9356,42 @@
       <c r="DE56" s="30"/>
       <c r="DF56" s="30"/>
       <c r="DG56" s="30"/>
-      <c r="DH56" s="30"/>
-      <c r="DI56" s="30"/>
-      <c r="DJ56" s="29">
-        <f>SUM(CJ56:DI56)</f>
-        <v>0</v>
-      </c>
-      <c r="DK56" s="29" t="str">
-        <f>HLOOKUP(DJ56,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH56" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI56" s="29" t="str">
+        <f>HLOOKUP(DH56,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ56" s="30"/>
+      <c r="DK56" s="30"/>
       <c r="DL56" s="30"/>
-      <c r="DM56" s="30"/>
-      <c r="DN56" s="30"/>
-      <c r="DO56" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM56" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN56" s="29" t="str">
+        <f>HLOOKUP(DM56,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO56" s="31">
         <v>0</v>
       </c>
       <c r="DP56" s="29" t="str">
-        <f>HLOOKUP(DO56,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ56" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR56" s="29" t="str">
-        <f>HLOOKUP(DQ56,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO56,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="57" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
       <c r="C57" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D57" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E57" s="27" t="str">
@@ -9492,23 +9399,23 @@
         <v>F</v>
       </c>
       <c r="F57" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G57" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H57" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I57" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J57" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K57" s="26"/>
@@ -9535,15 +9442,15 @@
       <c r="AF57" s="26"/>
       <c r="AG57" s="26"/>
       <c r="AH57" s="26"/>
-      <c r="AI57" s="26"/>
-      <c r="AJ57" s="29">
-        <f>SUM('GRADE BOOK'!$K57:$AI57)</f>
-        <v>0</v>
-      </c>
-      <c r="AK57" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI57" s="29">
+        <f>SUM('GRADE BOOK'!$K57:$AH57)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="29" t="str">
+        <f>HLOOKUP(AI57,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK57" s="30"/>
       <c r="AL57" s="30"/>
       <c r="AM57" s="30"/>
       <c r="AN57" s="30"/>
@@ -9567,22 +9474,22 @@
       <c r="BF57" s="30"/>
       <c r="BG57" s="30"/>
       <c r="BH57" s="30"/>
-      <c r="BI57" s="30"/>
-      <c r="BJ57" s="29">
+      <c r="BI57" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK57" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL57" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM57" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ57" s="29" t="str">
+        <f>HLOOKUP(BI57,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK57" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL57" s="29" t="str">
+        <f>HLOOKUP(BK57,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM57" s="30"/>
       <c r="BN57" s="30"/>
       <c r="BO57" s="30"/>
       <c r="BP57" s="30"/>
@@ -9601,16 +9508,16 @@
       <c r="CC57" s="30"/>
       <c r="CD57" s="30"/>
       <c r="CE57" s="30"/>
-      <c r="CF57" s="30"/>
-      <c r="CG57" s="30"/>
-      <c r="CH57" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI57" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF57" s="29">
+        <f>SUM(BM57:CE57)</f>
+        <v>0</v>
+      </c>
+      <c r="CG57" s="29" t="str">
+        <f>HLOOKUP(CF57,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH57" s="30"/>
+      <c r="CI57" s="30"/>
       <c r="CJ57" s="30"/>
       <c r="CK57" s="30"/>
       <c r="CL57" s="30"/>
@@ -9635,44 +9542,42 @@
       <c r="DE57" s="30"/>
       <c r="DF57" s="30"/>
       <c r="DG57" s="30"/>
-      <c r="DH57" s="30"/>
-      <c r="DI57" s="30"/>
-      <c r="DJ57" s="29">
-        <f>SUM(CJ57:DI57)</f>
-        <v>0</v>
-      </c>
-      <c r="DK57" s="29" t="str">
-        <f>HLOOKUP(DJ57,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH57" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI57" s="29" t="str">
+        <f>HLOOKUP(DH57,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ57" s="30"/>
+      <c r="DK57" s="30"/>
       <c r="DL57" s="30"/>
-      <c r="DM57" s="30"/>
-      <c r="DN57" s="30"/>
-      <c r="DO57" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM57" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN57" s="29" t="str">
+        <f>HLOOKUP(DM57,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO57" s="31">
         <v>0</v>
       </c>
       <c r="DP57" s="29" t="str">
-        <f>HLOOKUP(DO57,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ57" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR57" s="29" t="str">
-        <f>HLOOKUP(DQ57,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO57,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="58" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
       <c r="C58" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="D58" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="E58" s="27" t="str">
@@ -9680,23 +9585,23 @@
         <v>F</v>
       </c>
       <c r="F58" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="G58" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="H58" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
       <c r="I58" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="J58" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="K58" s="26"/>
@@ -9723,15 +9628,15 @@
       <c r="AF58" s="26"/>
       <c r="AG58" s="26"/>
       <c r="AH58" s="26"/>
-      <c r="AI58" s="26"/>
-      <c r="AJ58" s="29">
-        <f>SUM('GRADE BOOK'!$K58:$AI58)</f>
-        <v>0</v>
-      </c>
-      <c r="AK58" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
+      <c r="AI58" s="29">
+        <f>SUM('GRADE BOOK'!$K58:$AH58)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="29" t="str">
+        <f>HLOOKUP(AI58,A$9:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AK58" s="30"/>
       <c r="AL58" s="30"/>
       <c r="AM58" s="30"/>
       <c r="AN58" s="30"/>
@@ -9755,22 +9660,22 @@
       <c r="BF58" s="30"/>
       <c r="BG58" s="30"/>
       <c r="BH58" s="30"/>
-      <c r="BI58" s="30"/>
-      <c r="BJ58" s="29">
+      <c r="BI58" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BK58" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="BL58" s="29">
-        <v>0</v>
-      </c>
-      <c r="BM58" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v>F</v>
-      </c>
+      <c r="BJ58" s="29" t="str">
+        <f>HLOOKUP(BI58,A$10:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BK58" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL58" s="29" t="str">
+        <f>HLOOKUP(BK58,B$11:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BM58" s="30"/>
       <c r="BN58" s="30"/>
       <c r="BO58" s="30"/>
       <c r="BP58" s="30"/>
@@ -9789,16 +9694,16 @@
       <c r="CC58" s="30"/>
       <c r="CD58" s="30"/>
       <c r="CE58" s="30"/>
-      <c r="CF58" s="30"/>
-      <c r="CG58" s="30"/>
-      <c r="CH58" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CI58" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
+      <c r="CF58" s="29">
+        <f>SUM(BM58:CE58)</f>
+        <v>0</v>
+      </c>
+      <c r="CG58" s="29" t="str">
+        <f>HLOOKUP(CF58,A$12:F$15,4,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH58" s="30"/>
+      <c r="CI58" s="30"/>
       <c r="CJ58" s="30"/>
       <c r="CK58" s="30"/>
       <c r="CL58" s="30"/>
@@ -9823,42 +9728,40 @@
       <c r="DE58" s="30"/>
       <c r="DF58" s="30"/>
       <c r="DG58" s="30"/>
-      <c r="DH58" s="30"/>
-      <c r="DI58" s="30"/>
-      <c r="DJ58" s="29">
-        <f>SUM(CJ58:DI58)</f>
-        <v>0</v>
-      </c>
-      <c r="DK58" s="29" t="str">
-        <f>HLOOKUP(DJ58,A$13:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="DH58" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="DI58" s="29" t="str">
+        <f>HLOOKUP(DH58,A$13:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="DJ58" s="30"/>
+      <c r="DK58" s="30"/>
       <c r="DL58" s="30"/>
-      <c r="DM58" s="30"/>
-      <c r="DN58" s="30"/>
-      <c r="DO58" s="29">
-        <f t="shared" si="14"/>
+      <c r="DM58" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DN58" s="29" t="str">
+        <f>HLOOKUP(DM58,A$14:F$15,2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="DO58" s="31">
         <v>0</v>
       </c>
       <c r="DP58" s="29" t="str">
-        <f>HLOOKUP(DO58,A$14:F$15,2,TRUE)</f>
-        <v>D</v>
-      </c>
-      <c r="DQ58" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR58" s="29" t="str">
-        <f>HLOOKUP(DQ58,A$8:F$15,8,TRUE)</f>
+        <f>HLOOKUP(DO58,A$8:F$15,8,TRUE)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="59" spans="1:122" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
+    <row r="59" spans="1:120" x14ac:dyDescent="0.25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -9877,10 +9780,10 @@
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
     </row>
-    <row r="60" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
   </sheetData>
@@ -9888,7 +9791,7 @@
     <mergeCell ref="A59:F59"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A19:DR58">
+  <conditionalFormatting sqref="A19:DP58">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -9957,11 +9860,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>33</v>
@@ -9977,7 +9880,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="45" t="s">
         <v>31</v>
       </c>
@@ -10006,11 +9909,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>33</v>
@@ -10026,9 +9929,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
